--- a/Calculs/PH3/DataBase_PH3_FileA_V6_results.xlsx
+++ b/Calculs/PH3/DataBase_PH3_FileA_V6_results.xlsx
@@ -925,53 +925,53 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>29.25312</v>
+        <v>22</v>
       </c>
       <c r="Z3" t="n">
-        <v>8.885759999999999</v>
+        <v>9</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>29.25312</v>
+        <v>22</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.885759999999999</v>
+        <v>9</v>
       </c>
       <c r="AD3" t="n">
-        <v>52.820352</v>
+        <v>43.2</v>
       </c>
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="n">
-        <v>38.13888</v>
+        <v>31</v>
       </c>
       <c r="AG3" t="n">
-        <v>29.25312</v>
+        <v>22</v>
       </c>
       <c r="AH3" t="n">
-        <v>8.885759999999999</v>
+        <v>9</v>
       </c>
       <c r="AI3" t="n">
-        <v>4.987154711705281</v>
+        <v>3.75062228088888</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1.401197381800487</v>
+        <v>1.419211911665901</v>
       </c>
       <c r="AK3" t="n">
-        <v>-244.708979170015</v>
+        <v>-184.0349864130845</v>
       </c>
       <c r="AL3" t="n">
-        <v>-64.07046991430741</v>
+        <v>-64.89419354436387</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>-85.07227680381226</v>
+        <v>-86.16601069962618</v>
       </c>
       <c r="AO3" t="n">
-        <v>52.820352</v>
+        <v>43.2</v>
       </c>
       <c r="AP3" t="n">
         <v>56.86374264883423</v>
@@ -980,25 +980,25 @@
         <v>79.64065551027335</v>
       </c>
       <c r="AR3" t="n">
-        <v>5.90044398155136</v>
+        <v>4.88562627279755</v>
       </c>
       <c r="AS3" t="n">
-        <v>-386.7960418778445</v>
+        <v>-316.2041155041573</v>
       </c>
       <c r="AT3" t="n">
         <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>-518.5368800478759</v>
+        <v>-423.8052616091816</v>
       </c>
       <c r="AV3" t="n">
-        <v>38.13888</v>
+        <v>31</v>
       </c>
       <c r="AW3" t="n">
-        <v>4.672226990056234</v>
+        <v>3.835017245534339</v>
       </c>
       <c r="AX3" t="n">
-        <v>-324.0458083646158</v>
+        <v>-263.2828206510765</v>
       </c>
       <c r="AY3" t="n">
         <v>56.86374264883423</v>
@@ -1084,44 +1084,44 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>80.57499999999999</v>
+        <v>75</v>
       </c>
       <c r="Z4" t="n">
-        <v>24.475</v>
+        <v>24</v>
       </c>
       <c r="AA4" t="n">
         <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>80.57499999999999</v>
+        <v>75</v>
       </c>
       <c r="AC4" t="n">
-        <v>24.475</v>
+        <v>24</v>
       </c>
       <c r="AD4" t="n">
-        <v>145.48875</v>
+        <v>137.25</v>
       </c>
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="n">
-        <v>105.05</v>
+        <v>99</v>
       </c>
       <c r="AG4" t="n">
-        <v>80.57499999999999</v>
+        <v>75</v>
       </c>
       <c r="AH4" t="n">
-        <v>24.475</v>
+        <v>24</v>
       </c>
       <c r="AI4" t="n">
-        <v>11.20147239622079</v>
+        <v>10.42644033157381</v>
       </c>
       <c r="AJ4" t="n">
-        <v>3.402495028203586</v>
+        <v>3.336460906103619</v>
       </c>
       <c r="AK4" t="n">
-        <v>-255.5412008877078</v>
+        <v>-237.8602552476336</v>
       </c>
       <c r="AL4" t="n">
-        <v>-77.6217299624778</v>
+        <v>-76.11528167924278</v>
       </c>
       <c r="AM4" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>145.48875</v>
+        <v>137.25</v>
       </c>
       <c r="AP4" t="n">
         <v>141.9525202393384</v>
@@ -1139,10 +1139,10 @@
         <v>141.9525202393384</v>
       </c>
       <c r="AR4" t="n">
-        <v>0</v>
+        <v>16.01340892719436</v>
       </c>
       <c r="AS4" t="n">
-        <v>0</v>
+        <v>-437.5022912050916</v>
       </c>
       <c r="AT4" t="n">
         <v>0</v>
@@ -1151,13 +1151,13 @@
         <v>0</v>
       </c>
       <c r="AV4" t="n">
-        <v>105.05</v>
+        <v>99</v>
       </c>
       <c r="AW4" t="n">
-        <v>10.12052234301001</v>
+        <v>9.618853051262352</v>
       </c>
       <c r="AX4" t="n">
-        <v>-344.8902433747412</v>
+        <v>-324.7920660289793</v>
       </c>
       <c r="AY4" t="n">
         <v>141.9525202393384</v>
@@ -1243,44 +1243,44 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>30.75328</v>
+        <v>23.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>9.34144</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>30.75328</v>
+        <v>23.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.34144</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>55.529088</v>
+        <v>46.56</v>
       </c>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="n">
-        <v>40.09472</v>
+        <v>33.40000000000001</v>
       </c>
       <c r="AG5" t="n">
-        <v>30.75328</v>
+        <v>23.6</v>
       </c>
       <c r="AH5" t="n">
-        <v>9.34144</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AI5" t="n">
-        <v>5.291882555053946</v>
+        <v>4.060979131308044</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1.6074319023884</v>
+        <v>1.686338791814357</v>
       </c>
       <c r="AK5" t="n">
-        <v>-195.8672698415225</v>
+        <v>-150.3081156956244</v>
       </c>
       <c r="AL5" t="n">
-        <v>-59.49551882558191</v>
+        <v>-62.41608194140333</v>
       </c>
       <c r="AM5" t="n">
         <v>0</v>
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="AO5" t="n">
-        <v>55.529088</v>
+        <v>46.56</v>
       </c>
       <c r="AP5" t="n">
         <v>74.70889227763416</v>
@@ -1298,10 +1298,10 @@
         <v>74.70889227763416</v>
       </c>
       <c r="AR5" t="n">
-        <v>6.759624940383007</v>
+        <v>5.743572922442558</v>
       </c>
       <c r="AS5" t="n">
-        <v>-361.2494172043532</v>
+        <v>-302.6782255993747</v>
       </c>
       <c r="AT5" t="n">
         <v>0</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="AV5" t="n">
-        <v>40.09472</v>
+        <v>33.40000000000001</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.991985829440042</v>
+        <v>4.197363275328645</v>
       </c>
       <c r="AX5" t="n">
-        <v>-260.5146970415208</v>
+        <v>-216.9030795741497</v>
       </c>
       <c r="AY5" t="n">
         <v>74.70889227763416</v>
@@ -1402,44 +1402,44 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>58.014</v>
+        <v>60</v>
       </c>
       <c r="Z6" t="n">
-        <v>17.622</v>
+        <v>19</v>
       </c>
       <c r="AA6" t="n">
         <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>58.014</v>
+        <v>60</v>
       </c>
       <c r="AC6" t="n">
-        <v>17.622</v>
+        <v>19</v>
       </c>
       <c r="AD6" t="n">
-        <v>104.7519</v>
+        <v>109.5</v>
       </c>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="n">
-        <v>75.63600000000001</v>
+        <v>79</v>
       </c>
       <c r="AG6" t="n">
-        <v>58.014</v>
+        <v>60</v>
       </c>
       <c r="AH6" t="n">
-        <v>17.622</v>
+        <v>19</v>
       </c>
       <c r="AI6" t="n">
-        <v>9.995620111259429</v>
+        <v>10.33780133546324</v>
       </c>
       <c r="AJ6" t="n">
-        <v>3.03621225222556</v>
+        <v>3.273637089563366</v>
       </c>
       <c r="AK6" t="n">
-        <v>-303.2492554944853</v>
+        <v>-313.6304224785245</v>
       </c>
       <c r="AL6" t="n">
-        <v>-92.11325508194261</v>
+        <v>-99.31630045153274</v>
       </c>
       <c r="AM6" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>104.7519</v>
+        <v>109.5</v>
       </c>
       <c r="AP6" t="n">
         <v>89.00659508617927</v>
@@ -1469,13 +1469,13 @@
         <v>0</v>
       </c>
       <c r="AV6" t="n">
-        <v>75.63600000000001</v>
+        <v>79</v>
       </c>
       <c r="AW6" t="n">
-        <v>9.024431339109613</v>
+        <v>9.371890693772485</v>
       </c>
       <c r="AX6" t="n">
-        <v>-406.0859733077738</v>
+        <v>-424.3141735285971</v>
       </c>
       <c r="AY6" t="n">
         <v>89.00659508617927</v>
@@ -1871,53 +1871,53 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>30.0032</v>
+        <v>22.3</v>
       </c>
       <c r="Z9" t="n">
-        <v>9.1136</v>
+        <v>10.3</v>
       </c>
       <c r="AA9" t="n">
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>30.0032</v>
+        <v>22.3</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.1136</v>
+        <v>10.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>54.17472</v>
+        <v>45.55500000000001</v>
       </c>
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="n">
-        <v>39.1168</v>
+        <v>32.6</v>
       </c>
       <c r="AG9" t="n">
-        <v>30.0032</v>
+        <v>22.3</v>
       </c>
       <c r="AH9" t="n">
-        <v>9.1136</v>
+        <v>10.3</v>
       </c>
       <c r="AI9" t="n">
-        <v>5.115030473543884</v>
+        <v>3.80176713017374</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1.29961273619006</v>
+        <v>1.468795117490084</v>
       </c>
       <c r="AK9" t="n">
-        <v>-250.9835683795025</v>
+        <v>-186.5445544096266</v>
       </c>
       <c r="AL9" t="n">
-        <v>-54.4765493430729</v>
+        <v>-61.56825603862919</v>
       </c>
       <c r="AM9" t="n">
         <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>-72.47108453312769</v>
+        <v>-81.90530313939776</v>
       </c>
       <c r="AO9" t="n">
-        <v>54.17472</v>
+        <v>45.55500000000001</v>
       </c>
       <c r="AP9" t="n">
         <v>56.86374264883423</v>
@@ -1926,25 +1926,25 @@
         <v>119.5708300148144</v>
       </c>
       <c r="AR9" t="n">
-        <v>5.512793727761347</v>
+        <v>4.682813267136837</v>
       </c>
       <c r="AS9" t="n">
-        <v>-328.56646773338</v>
+        <v>-276.1752913690189</v>
       </c>
       <c r="AT9" t="n">
         <v>0</v>
       </c>
       <c r="AU9" t="n">
-        <v>-441.6911086917161</v>
+        <v>-371.1913126415461</v>
       </c>
       <c r="AV9" t="n">
-        <v>39.1168</v>
+        <v>32.6</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.785503516481082</v>
+        <v>4.024215597671075</v>
       </c>
       <c r="AX9" t="n">
-        <v>-332.3735469549238</v>
+        <v>-276.8967676962959</v>
       </c>
       <c r="AY9" t="n">
         <v>56.86374264883423</v>
@@ -2030,44 +2030,44 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>96.69</v>
+        <v>92.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>29.37</v>
+        <v>31</v>
       </c>
       <c r="AA10" t="n">
         <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>96.69</v>
+        <v>92.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>29.37</v>
+        <v>31</v>
       </c>
       <c r="AD10" t="n">
-        <v>174.5865</v>
+        <v>171.375</v>
       </c>
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="n">
-        <v>126.06</v>
+        <v>123.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>96.69</v>
+        <v>92.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>29.37</v>
+        <v>31</v>
       </c>
       <c r="AI10" t="n">
-        <v>13.17284070373834</v>
+        <v>12.60200398278824</v>
       </c>
       <c r="AJ10" t="n">
-        <v>4.001306561886388</v>
+        <v>4.223374307745255</v>
       </c>
       <c r="AK10" t="n">
-        <v>-292.3214409181402</v>
+        <v>-279.6538761498394</v>
       </c>
       <c r="AL10" t="n">
-        <v>-88.79388478400845</v>
+        <v>-93.72183957454077</v>
       </c>
       <c r="AM10" t="n">
         <v>0</v>
@@ -2076,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>174.5865</v>
+        <v>171.375</v>
       </c>
       <c r="AP10" t="n">
         <v>148.4107141676017</v>
@@ -2097,13 +2097,13 @@
         <v>0</v>
       </c>
       <c r="AV10" t="n">
-        <v>126.06</v>
+        <v>123.5</v>
       </c>
       <c r="AW10" t="n">
-        <v>11.60224718106132</v>
+        <v>11.41078059975216</v>
       </c>
       <c r="AX10" t="n">
-        <v>-395.6999891235492</v>
+        <v>-387.5393790966002</v>
       </c>
       <c r="AY10" t="n">
         <v>148.4107141676017</v>
@@ -2189,53 +2189,53 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>52.5056</v>
+        <v>40.7</v>
       </c>
       <c r="Z11" t="n">
-        <v>15.9488</v>
+        <v>16.1</v>
       </c>
       <c r="AA11" t="n">
         <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>52.5056</v>
+        <v>40.7</v>
       </c>
       <c r="AC11" t="n">
-        <v>15.9488</v>
+        <v>16.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>94.80576000000002</v>
+        <v>79.09500000000001</v>
       </c>
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="n">
-        <v>68.45440000000001</v>
+        <v>56.8</v>
       </c>
       <c r="AG11" t="n">
-        <v>52.5056</v>
+        <v>40.7</v>
       </c>
       <c r="AH11" t="n">
-        <v>15.9488</v>
+        <v>16.1</v>
       </c>
       <c r="AI11" t="n">
-        <v>9.034921435457957</v>
+        <v>7.00346824763718</v>
       </c>
       <c r="AJ11" t="n">
-        <v>2.305011572286285</v>
+        <v>2.32686385896175</v>
       </c>
       <c r="AK11" t="n">
-        <v>-334.4075338757701</v>
+        <v>-259.2178096954199</v>
       </c>
       <c r="AL11" t="n">
-        <v>-72.97796325014347</v>
+        <v>-73.66981894106827</v>
       </c>
       <c r="AM11" t="n">
         <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>-100.0473754023757</v>
+        <v>-100.9958582450246</v>
       </c>
       <c r="AO11" t="n">
-        <v>94.80576000000002</v>
+        <v>79.09500000000001</v>
       </c>
       <c r="AP11" t="n">
         <v>74.70889227763416</v>
@@ -2244,25 +2244,25 @@
         <v>152.0469153189813</v>
       </c>
       <c r="AR11" t="n">
-        <v>9.475620873669314</v>
+        <v>7.974798289758342</v>
       </c>
       <c r="AS11" t="n">
-        <v>-434.8764989832523</v>
+        <v>-369.038205354933</v>
       </c>
       <c r="AT11" t="n">
         <v>0</v>
       </c>
       <c r="AU11" t="n">
-        <v>-641.5642314971318</v>
+        <v>-514.2892112320555</v>
       </c>
       <c r="AV11" t="n">
-        <v>68.45440000000001</v>
+        <v>56.8</v>
       </c>
       <c r="AW11" t="n">
-        <v>10.90928202754705</v>
+        <v>6.901030236528528</v>
       </c>
       <c r="AX11" t="n">
-        <v>-436.7144597097943</v>
+        <v>-369.5565771957142</v>
       </c>
       <c r="AY11" t="n">
         <v>74.70889227763416</v>
@@ -2348,53 +2348,53 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>70.90600000000001</v>
+        <v>77.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>21.538</v>
+        <v>29</v>
       </c>
       <c r="AA12" t="n">
         <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>70.90600000000001</v>
+        <v>77.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>21.538</v>
+        <v>29</v>
       </c>
       <c r="AD12" t="n">
-        <v>128.0301</v>
+        <v>148.125</v>
       </c>
       <c r="AE12" t="inlineStr"/>
       <c r="AF12" t="n">
-        <v>92.444</v>
+        <v>106.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>70.90600000000001</v>
+        <v>77.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>21.538</v>
+        <v>29</v>
       </c>
       <c r="AI12" t="n">
-        <v>11.40171550776045</v>
+        <v>12.46203356347043</v>
       </c>
       <c r="AJ12" t="n">
-        <v>3.160682445500866</v>
+        <v>4.255724343928178</v>
       </c>
       <c r="AK12" t="n">
-        <v>-316.0251999708781</v>
+        <v>-345.4143936725108</v>
       </c>
       <c r="AL12" t="n">
-        <v>-81.00280151935686</v>
+        <v>-109.0668234776372</v>
       </c>
       <c r="AM12" t="n">
         <v>0</v>
       </c>
       <c r="AN12" t="n">
-        <v>-113.8130054073434</v>
+        <v>-153.2443660884464</v>
       </c>
       <c r="AO12" t="n">
-        <v>128.0301</v>
+        <v>148.125</v>
       </c>
       <c r="AP12" t="n">
         <v>103.3798257448046</v>
@@ -2403,25 +2403,25 @@
         <v>152.8939937939988</v>
       </c>
       <c r="AR12" t="n">
-        <v>13.88207606748642</v>
+        <v>16.12056832575698</v>
       </c>
       <c r="AS12" t="n">
-        <v>-435.981731229225</v>
+        <v>-437.6294243246537</v>
       </c>
       <c r="AT12" t="n">
         <v>0</v>
       </c>
       <c r="AU12" t="n">
-        <v>-1085.694556484402</v>
+        <v>-1717.150739828654</v>
       </c>
       <c r="AV12" t="n">
-        <v>92.444</v>
+        <v>106.5</v>
       </c>
       <c r="AW12" t="n">
-        <v>10.15671636660574</v>
+        <v>0</v>
       </c>
       <c r="AX12" t="n">
-        <v>-424.5209543560929</v>
+        <v>0</v>
       </c>
       <c r="AY12" t="n">
         <v>103.3798257448046</v>
@@ -2507,53 +2507,53 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.367174</v>
+        <v>4</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.630302</v>
+        <v>6.5</v>
       </c>
       <c r="AA13" t="n">
         <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>5.367174</v>
+        <v>4</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.630302</v>
+        <v>6.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>9.691137900000001</v>
+        <v>15.15</v>
       </c>
       <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="n">
-        <v>6.997476000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>5.367174</v>
+        <v>4</v>
       </c>
       <c r="AH13" t="n">
-        <v>1.630302</v>
+        <v>6.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>1.527944913003966</v>
+        <v>1.13873388792058</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.3934216904390448</v>
+        <v>1.568568883466858</v>
       </c>
       <c r="AK13" t="n">
-        <v>-100.7226266641198</v>
+        <v>-75.06566492538141</v>
       </c>
       <c r="AL13" t="n">
-        <v>-22.95956341691363</v>
+        <v>-91.53958113891696</v>
       </c>
       <c r="AM13" t="n">
         <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>-31.00020464480774</v>
+        <v>-123.5975483016339</v>
       </c>
       <c r="AO13" t="n">
-        <v>9.691137900000001</v>
+        <v>15.15</v>
       </c>
       <c r="AP13" t="n">
         <v>25.25707130434771</v>
@@ -2562,25 +2562,25 @@
         <v>48.05751031038558</v>
       </c>
       <c r="AR13" t="n">
-        <v>1.722645450252558</v>
+        <v>2.666921526088994</v>
       </c>
       <c r="AS13" t="n">
-        <v>-137.800023129103</v>
+        <v>-215.4760505805596</v>
       </c>
       <c r="AT13" t="n">
         <v>0</v>
       </c>
       <c r="AU13" t="n">
-        <v>-187.4649469512106</v>
+        <v>-293.1796895015173</v>
       </c>
       <c r="AV13" t="n">
-        <v>6.997476000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AW13" t="n">
-        <v>1.461733262364116</v>
+        <v>2.176677257981596</v>
       </c>
       <c r="AX13" t="n">
-        <v>-132.7834527308567</v>
+        <v>-199.2983428546636</v>
       </c>
       <c r="AY13" t="n">
         <v>25.25707130434771</v>
@@ -2666,44 +2666,44 @@
         <v>0.05</v>
       </c>
       <c r="Y14" t="n">
-        <v>20.3049</v>
+        <v>20</v>
       </c>
       <c r="Z14" t="n">
-        <v>6.1677</v>
+        <v>13</v>
       </c>
       <c r="AA14" t="n">
         <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>20.3049</v>
+        <v>20</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.1677</v>
+        <v>13</v>
       </c>
       <c r="AD14" t="n">
-        <v>36.663165</v>
+        <v>46.5</v>
       </c>
       <c r="AE14" t="inlineStr"/>
       <c r="AF14" t="n">
-        <v>26.4726</v>
+        <v>33</v>
       </c>
       <c r="AG14" t="n">
-        <v>20.3049</v>
+        <v>20</v>
       </c>
       <c r="AH14" t="n">
-        <v>6.1677</v>
+        <v>13</v>
       </c>
       <c r="AI14" t="n">
-        <v>3.265036713585944</v>
+        <v>3.216008661540757</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.9917688310892464</v>
+        <v>2.090405630001491</v>
       </c>
       <c r="AK14" t="n">
-        <v>-90.49812544620598</v>
+        <v>-89.13919836709955</v>
       </c>
       <c r="AL14" t="n">
-        <v>-27.489191688438</v>
+        <v>-57.94047893861473</v>
       </c>
       <c r="AM14" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         <v>0</v>
       </c>
       <c r="AO14" t="n">
-        <v>36.663165</v>
+        <v>46.5</v>
       </c>
       <c r="AP14" t="n">
         <v>103.3798257448046</v>
@@ -2721,10 +2721,10 @@
         <v>103.3798257448046</v>
       </c>
       <c r="AR14" t="n">
-        <v>4.360583956539725</v>
+        <v>5.461550919953553</v>
       </c>
       <c r="AS14" t="n">
-        <v>-167.4672824493151</v>
+        <v>-212.5825254974281</v>
       </c>
       <c r="AT14" t="n">
         <v>0</v>
@@ -2733,13 +2733,13 @@
         <v>0</v>
       </c>
       <c r="AV14" t="n">
-        <v>26.4726</v>
+        <v>33</v>
       </c>
       <c r="AW14" t="n">
-        <v>3.188100768533812</v>
+        <v>3.94278209859754</v>
       </c>
       <c r="AX14" t="n">
-        <v>-120.8151818549907</v>
+        <v>-150.6876485289022</v>
       </c>
       <c r="AY14" t="n">
         <v>103.3798257448046</v>
@@ -2825,44 +2825,44 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.140089999999999</v>
+        <v>5</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.25757</v>
+        <v>6.5</v>
       </c>
       <c r="AA15" t="n">
         <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>4.140089999999999</v>
+        <v>5</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.25757</v>
+        <v>6.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>7.475476499999999</v>
+        <v>16.5</v>
       </c>
       <c r="AE15" t="inlineStr"/>
       <c r="AF15" t="n">
-        <v>5.397659999999998</v>
+        <v>11.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>4.140089999999999</v>
+        <v>5</v>
       </c>
       <c r="AH15" t="n">
-        <v>1.25757</v>
+        <v>6.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>1.178615053362688</v>
+        <v>1.423416635655408</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.358000629952973</v>
+        <v>1.850441579595851</v>
       </c>
       <c r="AK15" t="n">
-        <v>-77.69465311483597</v>
+        <v>-93.83208594403841</v>
       </c>
       <c r="AL15" t="n">
-        <v>-23.60013999007196</v>
+        <v>-121.9817120363115</v>
       </c>
       <c r="AM15" t="n">
         <v>0</v>
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>7.475476499999999</v>
+        <v>16.5</v>
       </c>
       <c r="AP15" t="n">
         <v>25.25707130434771</v>
@@ -2880,10 +2880,10 @@
         <v>25.25707130434771</v>
       </c>
       <c r="AR15" t="n">
-        <v>1.559969951907966</v>
+        <v>3.374692777049029</v>
       </c>
       <c r="AS15" t="n">
-        <v>-141.8588953960321</v>
+        <v>-313.3245638198975</v>
       </c>
       <c r="AT15" t="n">
         <v>0</v>
@@ -2892,13 +2892,13 @@
         <v>0</v>
       </c>
       <c r="AV15" t="n">
-        <v>5.397659999999998</v>
+        <v>11.5</v>
       </c>
       <c r="AW15" t="n">
-        <v>1.131428680109055</v>
+        <v>2.378709824713386</v>
       </c>
       <c r="AX15" t="n">
-        <v>-102.4135917507267</v>
+        <v>-218.2953639731338</v>
       </c>
       <c r="AY15" t="n">
         <v>25.25707130434771</v>
@@ -2984,53 +2984,53 @@
         <v>0.06</v>
       </c>
       <c r="Y16" t="n">
-        <v>75.16036000000001</v>
+        <v>61.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>22.83028</v>
+        <v>24</v>
       </c>
       <c r="AA16" t="n">
         <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>75.16036000000001</v>
+        <v>61.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>22.83028</v>
+        <v>24</v>
       </c>
       <c r="AD16" t="n">
-        <v>135.711906</v>
+        <v>119.025</v>
       </c>
       <c r="AE16" t="inlineStr"/>
       <c r="AF16" t="n">
-        <v>97.99064000000001</v>
+        <v>85.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>75.16036000000001</v>
+        <v>61.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>22.83028</v>
+        <v>24</v>
       </c>
       <c r="AI16" t="n">
-        <v>12.08581843822607</v>
+        <v>9.889226634237817</v>
       </c>
       <c r="AJ16" t="n">
-        <v>3.350323392230921</v>
+        <v>3.521978767388838</v>
       </c>
       <c r="AK16" t="n">
-        <v>-334.9867119691307</v>
+        <v>-274.1030349788311</v>
       </c>
       <c r="AL16" t="n">
-        <v>-85.86296961051828</v>
+        <v>-90.26219874011352</v>
       </c>
       <c r="AM16" t="n">
         <v>0</v>
       </c>
       <c r="AN16" t="n">
-        <v>-120.641785731784</v>
+        <v>-126.8229236594039</v>
       </c>
       <c r="AO16" t="n">
-        <v>135.711906</v>
+        <v>119.025</v>
       </c>
       <c r="AP16" t="n">
         <v>103.3798257448046</v>
@@ -3039,25 +3039,25 @@
         <v>152.8939937939988</v>
       </c>
       <c r="AR16" t="n">
-        <v>14.90550482593952</v>
+        <v>12.38556370068627</v>
       </c>
       <c r="AS16" t="n">
-        <v>-436.6068233847019</v>
+        <v>-435.2802353964872</v>
       </c>
       <c r="AT16" t="n">
         <v>0</v>
       </c>
       <c r="AU16" t="n">
-        <v>-1324.987046485833</v>
+        <v>-816.7467891771117</v>
       </c>
       <c r="AV16" t="n">
-        <v>97.99064000000001</v>
+        <v>85.5</v>
       </c>
       <c r="AW16" t="n">
-        <v>14.24932320706866</v>
+        <v>9.498625311691912</v>
       </c>
       <c r="AX16" t="n">
-        <v>-437.294872637815</v>
+        <v>-392.3452956368425</v>
       </c>
       <c r="AY16" t="n">
         <v>103.3798257448046</v>
@@ -3143,53 +3143,53 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>40.62738</v>
+        <v>32.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>12.34074</v>
+        <v>15.5</v>
       </c>
       <c r="AA17" t="n">
         <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>40.62738</v>
+        <v>32.6</v>
       </c>
       <c r="AC17" t="n">
-        <v>12.34074</v>
+        <v>15.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>73.35807300000002</v>
+        <v>67.26000000000001</v>
       </c>
       <c r="AE17" t="inlineStr"/>
       <c r="AF17" t="n">
-        <v>52.96812</v>
+        <v>48.1</v>
       </c>
       <c r="AG17" t="n">
-        <v>40.62738</v>
+        <v>32.6</v>
       </c>
       <c r="AH17" t="n">
-        <v>12.34074</v>
+        <v>15.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>8.364186552119863</v>
+        <v>6.711544815321772</v>
       </c>
       <c r="AJ17" t="n">
-        <v>2.1091585065383</v>
+        <v>2.649105579815323</v>
       </c>
       <c r="AK17" t="n">
-        <v>-384.3218401046099</v>
+        <v>-308.3854284329996</v>
       </c>
       <c r="AL17" t="n">
-        <v>-82.34234634713233</v>
+        <v>-103.4222085098154</v>
       </c>
       <c r="AM17" t="n">
         <v>0</v>
       </c>
       <c r="AN17" t="n">
-        <v>-112.1803829262876</v>
+        <v>-140.8988581600636</v>
       </c>
       <c r="AO17" t="n">
-        <v>73.35807300000002</v>
+        <v>67.26000000000001</v>
       </c>
       <c r="AP17" t="n">
         <v>50.29503576592909</v>
@@ -3198,25 +3198,25 @@
         <v>106.7882529243395</v>
       </c>
       <c r="AR17" t="n">
-        <v>9.312795094875643</v>
+        <v>8.210343990366978</v>
       </c>
       <c r="AS17" t="n">
-        <v>-435.5054283520951</v>
+        <v>-435.0264305607138</v>
       </c>
       <c r="AT17" t="n">
         <v>0</v>
       </c>
       <c r="AU17" t="n">
-        <v>-870.1737980115639</v>
+        <v>-691.2174947388969</v>
       </c>
       <c r="AV17" t="n">
-        <v>52.96812</v>
+        <v>48.1</v>
       </c>
       <c r="AW17" t="n">
-        <v>0</v>
+        <v>15.13074985064794</v>
       </c>
       <c r="AX17" t="n">
-        <v>0</v>
+        <v>-447.2650424010174</v>
       </c>
       <c r="AY17" t="n">
         <v>50.29503576592909</v>
@@ -3300,53 +3300,53 @@
       </c>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="n">
-        <v>93.467</v>
+        <v>87.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>28.391</v>
+        <v>30.5</v>
       </c>
       <c r="AA18" t="n">
         <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>93.467</v>
+        <v>87.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>28.391</v>
+        <v>30.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>168.76695</v>
+        <v>163.875</v>
       </c>
       <c r="AE18" t="inlineStr"/>
       <c r="AF18" t="n">
-        <v>121.858</v>
+        <v>118</v>
       </c>
       <c r="AG18" t="n">
-        <v>93.467</v>
+        <v>87.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>28.391</v>
+        <v>30.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>12.99370797961613</v>
+        <v>12.16418038683611</v>
       </c>
       <c r="AJ18" t="n">
-        <v>3.591005754352353</v>
+        <v>3.857760399695214</v>
       </c>
       <c r="AK18" t="n">
-        <v>-296.427793029741</v>
+        <v>-277.5036311222394</v>
       </c>
       <c r="AL18" t="n">
-        <v>-76.54558048759428</v>
+        <v>-82.23170035826938</v>
       </c>
       <c r="AM18" t="n">
         <v>0</v>
       </c>
       <c r="AN18" t="n">
-        <v>-126.7054827027535</v>
+        <v>-136.1176859721032</v>
       </c>
       <c r="AO18" t="n">
-        <v>168.76695</v>
+        <v>163.875</v>
       </c>
       <c r="AP18" t="n">
         <v>141.9525202393384</v>
@@ -3355,25 +3355,25 @@
         <v>197.9242103400195</v>
       </c>
       <c r="AR18" t="n">
-        <v>14.60972780563644</v>
+        <v>14.00117739614667</v>
       </c>
       <c r="AS18" t="n">
-        <v>-435.4860966780937</v>
+        <v>-435.2099493345398</v>
       </c>
       <c r="AT18" t="n">
         <v>0</v>
       </c>
       <c r="AU18" t="n">
-        <v>-1070.812514377834</v>
+        <v>-946.4754071808677</v>
       </c>
       <c r="AV18" t="n">
-        <v>121.858</v>
+        <v>118</v>
       </c>
       <c r="AW18" t="n">
-        <v>11.45054088172761</v>
+        <v>11.15386878165208</v>
       </c>
       <c r="AX18" t="n">
-        <v>-400.9178273199685</v>
+        <v>-388.0316215915748</v>
       </c>
       <c r="AY18" t="n">
         <v>141.9525202393384</v>
@@ -3459,53 +3459,53 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>33.7536</v>
+        <v>25</v>
       </c>
       <c r="Z19" t="n">
-        <v>10.2528</v>
+        <v>10</v>
       </c>
       <c r="AA19" t="n">
         <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>33.7536</v>
+        <v>25</v>
       </c>
       <c r="AC19" t="n">
-        <v>10.2528</v>
+        <v>10</v>
       </c>
       <c r="AD19" t="n">
-        <v>60.94656000000001</v>
+        <v>48.75</v>
       </c>
       <c r="AE19" t="inlineStr"/>
       <c r="AF19" t="n">
-        <v>44.0064</v>
+        <v>35</v>
       </c>
       <c r="AG19" t="n">
-        <v>33.7536</v>
+        <v>25</v>
       </c>
       <c r="AH19" t="n">
-        <v>10.2528</v>
+        <v>10</v>
       </c>
       <c r="AI19" t="n">
-        <v>5.754409282736865</v>
+        <v>4.262070773737374</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1.616766209769794</v>
+        <v>1.576902124073223</v>
       </c>
       <c r="AK19" t="n">
-        <v>-282.3565144269404</v>
+        <v>-209.1306663785051</v>
       </c>
       <c r="AL19" t="n">
-        <v>-73.92746528573933</v>
+        <v>-72.10465949373764</v>
       </c>
       <c r="AM19" t="n">
         <v>0</v>
       </c>
       <c r="AN19" t="n">
-        <v>-98.16031938901416</v>
+        <v>-95.74001188847356</v>
       </c>
       <c r="AO19" t="n">
-        <v>60.94656000000001</v>
+        <v>48.75</v>
       </c>
       <c r="AP19" t="n">
         <v>56.86374264883423</v>
@@ -3514,25 +3514,25 @@
         <v>79.64065551027335</v>
       </c>
       <c r="AR19" t="n">
-        <v>7.066399327896103</v>
+        <v>5.474538808415502</v>
       </c>
       <c r="AS19" t="n">
-        <v>-435.0478031221463</v>
+        <v>-356.9203475580205</v>
       </c>
       <c r="AT19" t="n">
         <v>0</v>
       </c>
       <c r="AU19" t="n">
-        <v>-679.3078223072297</v>
+        <v>-478.4390182456377</v>
       </c>
       <c r="AV19" t="n">
-        <v>44.0064</v>
+        <v>35</v>
       </c>
       <c r="AW19" t="n">
-        <v>5.346701899016952</v>
+        <v>4.306331640673138</v>
       </c>
       <c r="AX19" t="n">
-        <v>-374.0274556359911</v>
+        <v>-297.3225853996562</v>
       </c>
       <c r="AY19" t="n">
         <v>56.86374264883423</v>
@@ -3773,53 +3773,53 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>27.75296</v>
+        <v>20.4</v>
       </c>
       <c r="Z21" t="n">
-        <v>8.43008</v>
+        <v>10</v>
       </c>
       <c r="AA21" t="n">
         <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>27.75296</v>
+        <v>20.4</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.43008</v>
+        <v>10</v>
       </c>
       <c r="AD21" t="n">
-        <v>50.111616</v>
+        <v>42.54</v>
       </c>
       <c r="AE21" t="inlineStr"/>
       <c r="AF21" t="n">
-        <v>36.18304</v>
+        <v>30.4</v>
       </c>
       <c r="AG21" t="n">
-        <v>27.75296</v>
+        <v>20.4</v>
       </c>
       <c r="AH21" t="n">
-        <v>8.43008</v>
+        <v>10</v>
       </c>
       <c r="AI21" t="n">
-        <v>4.731403188028096</v>
+        <v>3.477849751369694</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1.202141780975805</v>
+        <v>1.426014677174837</v>
       </c>
       <c r="AK21" t="n">
-        <v>-232.1598007510398</v>
+        <v>-170.6506237648601</v>
       </c>
       <c r="AL21" t="n">
-        <v>-50.39080814234245</v>
+        <v>-59.77500586274677</v>
       </c>
       <c r="AM21" t="n">
         <v>0</v>
       </c>
       <c r="AN21" t="n">
-        <v>-67.03575319314314</v>
+        <v>-79.51971178582303</v>
       </c>
       <c r="AO21" t="n">
-        <v>50.111616</v>
+        <v>42.54</v>
       </c>
       <c r="AP21" t="n">
         <v>56.86374264883423</v>
@@ -3828,25 +3828,25 @@
         <v>119.5708300148144</v>
       </c>
       <c r="AR21" t="n">
-        <v>5.123915916319845</v>
+        <v>4.388085980833843</v>
       </c>
       <c r="AS21" t="n">
-        <v>-303.8649796775183</v>
+        <v>-257.8606218145208</v>
       </c>
       <c r="AT21" t="n">
         <v>0</v>
       </c>
       <c r="AU21" t="n">
-        <v>-408.4480792045898</v>
+        <v>-346.5531329208549</v>
       </c>
       <c r="AV21" t="n">
-        <v>36.18304</v>
+        <v>30.4</v>
       </c>
       <c r="AW21" t="n">
-        <v>4.444648368310663</v>
+        <v>3.763838079842326</v>
       </c>
       <c r="AX21" t="n">
-        <v>-307.3933331589693</v>
+        <v>-258.1782586829842</v>
       </c>
       <c r="AY21" t="n">
         <v>56.86374264883423</v>
@@ -3932,44 +3932,44 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>96.69</v>
+        <v>97.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>29.37</v>
+        <v>33</v>
       </c>
       <c r="AA22" t="n">
         <v>0</v>
       </c>
       <c r="AB22" t="n">
-        <v>96.69</v>
+        <v>97.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>29.37</v>
+        <v>33</v>
       </c>
       <c r="AD22" t="n">
-        <v>174.5865</v>
+        <v>181.125</v>
       </c>
       <c r="AE22" t="inlineStr"/>
       <c r="AF22" t="n">
-        <v>126.06</v>
+        <v>130.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>96.69</v>
+        <v>97.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>29.37</v>
+        <v>33</v>
       </c>
       <c r="AI22" t="n">
-        <v>13.41808665706805</v>
+        <v>13.53049383663393</v>
       </c>
       <c r="AJ22" t="n">
-        <v>4.075801066481417</v>
+        <v>4.57955176009148</v>
       </c>
       <c r="AK22" t="n">
-        <v>-305.3877930430573</v>
+        <v>-307.9461146105914</v>
       </c>
       <c r="AL22" t="n">
-        <v>-92.76284498577506</v>
+        <v>-104.227915714354</v>
       </c>
       <c r="AM22" t="n">
         <v>0</v>
@@ -3978,7 +3978,7 @@
         <v>0</v>
       </c>
       <c r="AO22" t="n">
-        <v>174.5865</v>
+        <v>181.125</v>
       </c>
       <c r="AP22" t="n">
         <v>142.4985880932212</v>
@@ -3999,13 +3999,13 @@
         <v>0</v>
       </c>
       <c r="AV22" t="n">
-        <v>126.06</v>
+        <v>130.5</v>
       </c>
       <c r="AW22" t="n">
-        <v>11.75308679189007</v>
+        <v>12.08084071527697</v>
       </c>
       <c r="AX22" t="n">
-        <v>-413.2750531450196</v>
+        <v>-428.0846827878975</v>
       </c>
       <c r="AY22" t="n">
         <v>142.4985880932212</v>
@@ -4091,53 +4091,53 @@
         <v>-0.1</v>
       </c>
       <c r="Y23" t="n">
-        <v>56.256</v>
+        <v>43.2</v>
       </c>
       <c r="Z23" t="n">
-        <v>17.088</v>
+        <v>16</v>
       </c>
       <c r="AA23" t="n">
         <v>0</v>
       </c>
       <c r="AB23" t="n">
-        <v>56.256</v>
+        <v>43.2</v>
       </c>
       <c r="AC23" t="n">
-        <v>17.088</v>
+        <v>16</v>
       </c>
       <c r="AD23" t="n">
-        <v>101.5776</v>
+        <v>82.32000000000001</v>
       </c>
       <c r="AE23" t="inlineStr"/>
       <c r="AF23" t="n">
-        <v>73.34399999999999</v>
+        <v>59.2</v>
       </c>
       <c r="AG23" t="n">
-        <v>56.256</v>
+        <v>43.2</v>
       </c>
       <c r="AH23" t="n">
-        <v>17.088</v>
+        <v>16</v>
       </c>
       <c r="AI23" t="n">
-        <v>8.560240239497679</v>
+        <v>6.573563323846336</v>
       </c>
       <c r="AJ23" t="n">
-        <v>2.343007933187948</v>
+        <v>2.193827652797703</v>
       </c>
       <c r="AK23" t="n">
-        <v>-270.7355570972866</v>
+        <v>-207.9027315593498</v>
       </c>
       <c r="AL23" t="n">
-        <v>-67.96652399742186</v>
+        <v>-63.63906741331635</v>
       </c>
       <c r="AM23" t="n">
         <v>0</v>
       </c>
       <c r="AN23" t="n">
-        <v>-93.45848293381093</v>
+        <v>-87.50794282192035</v>
       </c>
       <c r="AO23" t="n">
-        <v>101.5776</v>
+        <v>82.32000000000001</v>
       </c>
       <c r="AP23" t="n">
         <v>97.15351708232025</v>
@@ -4146,25 +4146,25 @@
         <v>150.2294002476962</v>
       </c>
       <c r="AR23" t="n">
-        <v>9.564472582814645</v>
+        <v>7.951142107731241</v>
       </c>
       <c r="AS23" t="n">
-        <v>-413.8800393194066</v>
+        <v>-334.8798760666575</v>
       </c>
       <c r="AT23" t="n">
         <v>0</v>
       </c>
       <c r="AU23" t="n">
-        <v>-579.9945050290886</v>
+        <v>-468.9188912494366</v>
       </c>
       <c r="AV23" t="n">
-        <v>73.34399999999999</v>
+        <v>59.2</v>
       </c>
       <c r="AW23" t="n">
-        <v>7.831188389844293</v>
+        <v>6.442148384557525</v>
       </c>
       <c r="AX23" t="n">
-        <v>-362.0044774989597</v>
+        <v>-291.8472424717015</v>
       </c>
       <c r="AY23" t="n">
         <v>97.15351708232025</v>
@@ -4250,53 +4250,53 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>70.90600000000001</v>
+        <v>77.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>21.538</v>
+        <v>29.5</v>
       </c>
       <c r="AA24" t="n">
         <v>0</v>
       </c>
       <c r="AB24" t="n">
-        <v>70.90600000000001</v>
+        <v>77.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>21.538</v>
+        <v>29.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>128.0301</v>
+        <v>148.875</v>
       </c>
       <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="n">
-        <v>92.444</v>
+        <v>107</v>
       </c>
       <c r="AG24" t="n">
-        <v>70.90600000000001</v>
+        <v>77.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>21.538</v>
+        <v>29.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>12.60041836719837</v>
+        <v>13.77221142721172</v>
       </c>
       <c r="AJ24" t="n">
-        <v>3.123173506687293</v>
+        <v>4.277723950565283</v>
       </c>
       <c r="AK24" t="n">
-        <v>-398.333899762391</v>
+        <v>-435.3775030545413</v>
       </c>
       <c r="AL24" t="n">
-        <v>-82.40109446744111</v>
+        <v>-112.8624889399903</v>
       </c>
       <c r="AM24" t="n">
         <v>0</v>
       </c>
       <c r="AN24" t="n">
-        <v>-115.6346729148657</v>
+        <v>-158.3815976872752</v>
       </c>
       <c r="AO24" t="n">
-        <v>128.0301</v>
+        <v>148.875</v>
       </c>
       <c r="AP24" t="n">
         <v>83.35514855552115</v>
@@ -4305,19 +4305,19 @@
         <v>186.7945470031471</v>
       </c>
       <c r="AR24" t="n">
-        <v>12.90216998521693</v>
+        <v>14.90658428849108</v>
       </c>
       <c r="AS24" t="n">
-        <v>-435.4828283297109</v>
+        <v>-436.3603601106942</v>
       </c>
       <c r="AT24" t="n">
         <v>0</v>
       </c>
       <c r="AU24" t="n">
-        <v>-894.7359662329277</v>
+        <v>-1233.8738393967</v>
       </c>
       <c r="AV24" t="n">
-        <v>92.444</v>
+        <v>107</v>
       </c>
       <c r="AW24" t="n">
         <v>0</v>
@@ -4409,53 +4409,53 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>2.100224</v>
+        <v>3</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.6379519999999999</v>
+        <v>6.5</v>
       </c>
       <c r="AA25" t="n">
         <v>0</v>
       </c>
       <c r="AB25" t="n">
-        <v>2.100224</v>
+        <v>3</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.6379519999999999</v>
+        <v>6.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>3.7922304</v>
+        <v>13.8</v>
       </c>
       <c r="AE25" t="inlineStr"/>
       <c r="AF25" t="n">
-        <v>2.738176</v>
+        <v>9.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>2.100224</v>
+        <v>3</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.6379519999999999</v>
+        <v>6.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>0.5979027869104363</v>
+        <v>0.8540516584411435</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0.1539489617209776</v>
+        <v>1.568568883466858</v>
       </c>
       <c r="AK25" t="n">
-        <v>-39.41365312961763</v>
+        <v>-56.29924048102043</v>
       </c>
       <c r="AL25" t="n">
-        <v>-8.984288135479684</v>
+        <v>-91.53958113891696</v>
       </c>
       <c r="AM25" t="n">
         <v>0</v>
       </c>
       <c r="AN25" t="n">
-        <v>-12.13066412759711</v>
+        <v>-123.5975483016339</v>
       </c>
       <c r="AO25" t="n">
-        <v>3.7922304</v>
+        <v>13.8</v>
       </c>
       <c r="AP25" t="n">
         <v>25.25707130434771</v>
@@ -4464,25 +4464,25 @@
         <v>48.05751031038558</v>
       </c>
       <c r="AR25" t="n">
-        <v>0.6810055428914774</v>
+        <v>2.435186782544478</v>
       </c>
       <c r="AS25" t="n">
-        <v>-53.90771746108849</v>
+        <v>-196.2626132271965</v>
       </c>
       <c r="AT25" t="n">
         <v>0</v>
       </c>
       <c r="AU25" t="n">
-        <v>-73.32546641605687</v>
+        <v>-267.027750436967</v>
       </c>
       <c r="AV25" t="n">
-        <v>2.738176</v>
+        <v>9.5</v>
       </c>
       <c r="AW25" t="n">
-        <v>0.5772155380021164</v>
+        <v>1.973711984216529</v>
       </c>
       <c r="AX25" t="n">
-        <v>-51.9434008359583</v>
+        <v>-180.3042098133579</v>
       </c>
       <c r="AY25" t="n">
         <v>25.25707130434771</v>
@@ -4568,53 +4568,53 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.338</v>
+        <v>15</v>
       </c>
       <c r="Z26" t="n">
-        <v>5.874</v>
+        <v>13</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
       </c>
       <c r="AB26" t="n">
-        <v>19.338</v>
+        <v>15</v>
       </c>
       <c r="AC26" t="n">
-        <v>5.874</v>
+        <v>13</v>
       </c>
       <c r="AD26" t="n">
-        <v>34.9173</v>
+        <v>39.75</v>
       </c>
       <c r="AE26" t="inlineStr"/>
       <c r="AF26" t="n">
-        <v>25.212</v>
+        <v>28</v>
       </c>
       <c r="AG26" t="n">
-        <v>19.338</v>
+        <v>15</v>
       </c>
       <c r="AH26" t="n">
-        <v>5.874</v>
+        <v>13</v>
       </c>
       <c r="AI26" t="n">
-        <v>3.613198426782055</v>
+        <v>2.802667101134083</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0.8082705758051623</v>
+        <v>1.788818094223205</v>
       </c>
       <c r="AK26" t="n">
-        <v>-121.3974375236764</v>
+        <v>-94.16493757654081</v>
       </c>
       <c r="AL26" t="n">
-        <v>-21.71625336127516</v>
+        <v>-48.06116678525312</v>
       </c>
       <c r="AM26" t="n">
         <v>0</v>
       </c>
       <c r="AN26" t="n">
-        <v>-35.37459951375748</v>
+        <v>-78.28903535560893</v>
       </c>
       <c r="AO26" t="n">
-        <v>34.9173</v>
+        <v>39.75</v>
       </c>
       <c r="AP26" t="n">
         <v>75.20242638779567</v>
@@ -4623,25 +4623,25 @@
         <v>194.8667783474324</v>
       </c>
       <c r="AR26" t="n">
-        <v>3.561791388411486</v>
+        <v>4.034320779193786</v>
       </c>
       <c r="AS26" t="n">
-        <v>-130.3071353535017</v>
+        <v>-148.3674869727557</v>
       </c>
       <c r="AT26" t="n">
         <v>0</v>
       </c>
       <c r="AU26" t="n">
-        <v>-218.4618673764147</v>
+        <v>-248.8146817624081</v>
       </c>
       <c r="AV26" t="n">
-        <v>25.212</v>
+        <v>28</v>
       </c>
       <c r="AW26" t="n">
-        <v>3.483743857572264</v>
+        <v>3.853313927817626</v>
       </c>
       <c r="AX26" t="n">
-        <v>-161.5493429533955</v>
+        <v>-179.458541931922</v>
       </c>
       <c r="AY26" t="n">
         <v>75.20242638779567</v>
@@ -4727,53 +4727,53 @@
         <v>-0.025</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.700608</v>
+        <v>5</v>
       </c>
       <c r="Z27" t="n">
-        <v>1.731584</v>
+        <v>6.5</v>
       </c>
       <c r="AA27" t="n">
         <v>0</v>
       </c>
       <c r="AB27" t="n">
-        <v>5.700608</v>
+        <v>5</v>
       </c>
       <c r="AC27" t="n">
-        <v>1.731584</v>
+        <v>6.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>10.2931968</v>
+        <v>16.5</v>
       </c>
       <c r="AE27" t="inlineStr"/>
       <c r="AF27" t="n">
-        <v>7.432192</v>
+        <v>11.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>5.700608</v>
+        <v>5</v>
       </c>
       <c r="AH27" t="n">
-        <v>1.731584</v>
+        <v>6.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>1.622868011104113</v>
+        <v>1.423416635655408</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0.4178628894629343</v>
+        <v>1.568568883466858</v>
       </c>
       <c r="AK27" t="n">
-        <v>-106.9799882289067</v>
+        <v>-93.83208594403841</v>
       </c>
       <c r="AL27" t="n">
-        <v>-24.38591908720775</v>
+        <v>-91.53958113891696</v>
       </c>
       <c r="AM27" t="n">
         <v>0</v>
       </c>
       <c r="AN27" t="n">
-        <v>-32.92608262743637</v>
+        <v>-123.5975483016339</v>
       </c>
       <c r="AO27" t="n">
-        <v>10.2931968</v>
+        <v>16.5</v>
       </c>
       <c r="AP27" t="n">
         <v>25.25707130434771</v>
@@ -4782,25 +4782,25 @@
         <v>48.05751031038558</v>
       </c>
       <c r="AR27" t="n">
-        <v>1.827727149170444</v>
+        <v>2.897466908936889</v>
       </c>
       <c r="AS27" t="n">
-        <v>-146.3649251816918</v>
+        <v>-234.6920343255617</v>
       </c>
       <c r="AT27" t="n">
         <v>0</v>
       </c>
       <c r="AU27" t="n">
-        <v>-199.1199435927217</v>
+        <v>-319.3371277308943</v>
       </c>
       <c r="AV27" t="n">
-        <v>7.432192</v>
+        <v>11.5</v>
       </c>
       <c r="AW27" t="n">
-        <v>1.551082919378423</v>
+        <v>2.378709824713386</v>
       </c>
       <c r="AX27" t="n">
-        <v>-141.0370580091802</v>
+        <v>-218.2953639731338</v>
       </c>
       <c r="AY27" t="n">
         <v>25.25707130434771</v>
@@ -4886,53 +4886,53 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>70.90600000000001</v>
+        <v>77.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>21.538</v>
+        <v>29</v>
       </c>
       <c r="AA28" t="n">
         <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>70.90600000000001</v>
+        <v>77.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>21.538</v>
+        <v>29</v>
       </c>
       <c r="AD28" t="n">
-        <v>128.0301</v>
+        <v>148.125</v>
       </c>
       <c r="AE28" t="inlineStr"/>
       <c r="AF28" t="n">
-        <v>92.444</v>
+        <v>106.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>70.90600000000001</v>
+        <v>77.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>21.538</v>
+        <v>29</v>
       </c>
       <c r="AI28" t="n">
-        <v>13.74258403838966</v>
+        <v>15.02059434991679</v>
       </c>
       <c r="AJ28" t="n">
-        <v>3.6776382587126</v>
+        <v>4.951783336552384</v>
       </c>
       <c r="AK28" t="n">
-        <v>-356.8260381124846</v>
+        <v>-390.0095613025352</v>
       </c>
       <c r="AL28" t="n">
-        <v>-87.22687305403052</v>
+        <v>-117.4472708035512</v>
       </c>
       <c r="AM28" t="n">
         <v>0</v>
       </c>
       <c r="AN28" t="n">
-        <v>-141.5699587597607</v>
+        <v>-190.6179219998635</v>
       </c>
       <c r="AO28" t="n">
-        <v>128.0301</v>
+        <v>148.125</v>
       </c>
       <c r="AP28" t="n">
         <v>90.85838122769931</v>
@@ -4941,19 +4941,19 @@
         <v>141.1222293681215</v>
       </c>
       <c r="AR28" t="n">
-        <v>15.36025884543391</v>
+        <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>-436.4061097923971</v>
+        <v>0</v>
       </c>
       <c r="AT28" t="n">
         <v>0</v>
       </c>
       <c r="AU28" t="n">
-        <v>-1451.688259323643</v>
+        <v>0</v>
       </c>
       <c r="AV28" t="n">
-        <v>92.444</v>
+        <v>106.5</v>
       </c>
       <c r="AW28" t="n">
         <v>0</v>
@@ -5045,53 +5045,53 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>56.256</v>
+        <v>41.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>17.088</v>
+        <v>15.5</v>
       </c>
       <c r="AA29" t="n">
         <v>0</v>
       </c>
       <c r="AB29" t="n">
-        <v>56.256</v>
+        <v>41.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>17.088</v>
+        <v>15.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>101.5776</v>
+        <v>79.27500000000001</v>
       </c>
       <c r="AE29" t="inlineStr"/>
       <c r="AF29" t="n">
-        <v>73.34399999999999</v>
+        <v>57</v>
       </c>
       <c r="AG29" t="n">
-        <v>56.256</v>
+        <v>41.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>17.088</v>
+        <v>15.5</v>
       </c>
       <c r="AI29" t="n">
-        <v>9.680272966562086</v>
+        <v>7.141128557173046</v>
       </c>
       <c r="AJ29" t="n">
-        <v>2.469655256021019</v>
+        <v>2.240153916185074</v>
       </c>
       <c r="AK29" t="n">
-        <v>-358.293786295468</v>
+        <v>-264.3130000579835</v>
       </c>
       <c r="AL29" t="n">
-        <v>-78.19067491086798</v>
+        <v>-70.92432526304162</v>
       </c>
       <c r="AM29" t="n">
         <v>0</v>
       </c>
       <c r="AN29" t="n">
-        <v>-107.1936165025454</v>
+        <v>-97.23199944852486</v>
       </c>
       <c r="AO29" t="n">
-        <v>101.5776</v>
+        <v>79.27500000000001</v>
       </c>
       <c r="AP29" t="n">
         <v>74.70889227763416</v>
@@ -5100,25 +5100,25 @@
         <v>152.0469153189813</v>
       </c>
       <c r="AR29" t="n">
-        <v>10.49664346941032</v>
+        <v>7.991038212454288</v>
       </c>
       <c r="AS29" t="n">
-        <v>-435.2495612013755</v>
+        <v>-369.8824778681716</v>
       </c>
       <c r="AT29" t="n">
         <v>0</v>
       </c>
       <c r="AU29" t="n">
-        <v>-781.9344378638514</v>
+        <v>-515.4693326960502</v>
       </c>
       <c r="AV29" t="n">
-        <v>73.34399999999999</v>
+        <v>57</v>
       </c>
       <c r="AW29" t="n">
-        <v>16.66666666666667</v>
+        <v>6.923223748416841</v>
       </c>
       <c r="AX29" t="n">
-        <v>-457.6017358306436</v>
+        <v>-370.8640296924319</v>
       </c>
       <c r="AY29" t="n">
         <v>74.70889227763416</v>
@@ -5204,53 +5204,53 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>93.467</v>
+        <v>95</v>
       </c>
       <c r="Z30" t="n">
-        <v>28.391</v>
+        <v>31.5</v>
       </c>
       <c r="AA30" t="n">
         <v>0</v>
       </c>
       <c r="AB30" t="n">
-        <v>93.467</v>
+        <v>95</v>
       </c>
       <c r="AC30" t="n">
-        <v>28.391</v>
+        <v>31.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>168.76695</v>
+        <v>175.5</v>
       </c>
       <c r="AE30" t="inlineStr"/>
       <c r="AF30" t="n">
-        <v>121.858</v>
+        <v>126.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>93.467</v>
+        <v>95</v>
       </c>
       <c r="AH30" t="n">
-        <v>28.391</v>
+        <v>31.5</v>
       </c>
       <c r="AI30" t="n">
-        <v>12.99370797961613</v>
+        <v>13.2068244199935</v>
       </c>
       <c r="AJ30" t="n">
-        <v>3.591005754352353</v>
+        <v>3.984244347226204</v>
       </c>
       <c r="AK30" t="n">
-        <v>-296.427793029741</v>
+        <v>-301.2896566470026</v>
       </c>
       <c r="AL30" t="n">
-        <v>-76.54558048759428</v>
+        <v>-84.9278216814913</v>
       </c>
       <c r="AM30" t="n">
         <v>0</v>
       </c>
       <c r="AN30" t="n">
-        <v>-126.7054827027535</v>
+        <v>-140.5805609220082</v>
       </c>
       <c r="AO30" t="n">
-        <v>168.76695</v>
+        <v>175.5</v>
       </c>
       <c r="AP30" t="n">
         <v>141.9525202393384</v>
@@ -5259,25 +5259,25 @@
         <v>197.9242103400195</v>
       </c>
       <c r="AR30" t="n">
-        <v>14.60972780563644</v>
+        <v>15.31828582066862</v>
       </c>
       <c r="AS30" t="n">
-        <v>-435.4860966780937</v>
+        <v>-435.8853155646406</v>
       </c>
       <c r="AT30" t="n">
         <v>0</v>
       </c>
       <c r="AU30" t="n">
-        <v>-1070.812514377834</v>
+        <v>-1249.982494529444</v>
       </c>
       <c r="AV30" t="n">
-        <v>121.858</v>
+        <v>126.5</v>
       </c>
       <c r="AW30" t="n">
-        <v>11.45054088172761</v>
+        <v>11.80037916619005</v>
       </c>
       <c r="AX30" t="n">
-        <v>-400.9178273199685</v>
+        <v>-416.4443326351392</v>
       </c>
       <c r="AY30" t="n">
         <v>141.9525202393384</v>
@@ -5361,53 +5361,53 @@
       </c>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="n">
-        <v>27.75296</v>
+        <v>21</v>
       </c>
       <c r="Z31" t="n">
-        <v>8.43008</v>
+        <v>10</v>
       </c>
       <c r="AA31" t="n">
         <v>0</v>
       </c>
       <c r="AB31" t="n">
-        <v>27.75296</v>
+        <v>21</v>
       </c>
       <c r="AC31" t="n">
-        <v>8.43008</v>
+        <v>10</v>
       </c>
       <c r="AD31" t="n">
-        <v>50.111616</v>
+        <v>43.35</v>
       </c>
       <c r="AE31" t="inlineStr"/>
       <c r="AF31" t="n">
-        <v>36.18304</v>
+        <v>31</v>
       </c>
       <c r="AG31" t="n">
-        <v>27.75296</v>
+        <v>21</v>
       </c>
       <c r="AH31" t="n">
-        <v>8.43008</v>
+        <v>10</v>
       </c>
       <c r="AI31" t="n">
-        <v>4.731403188028096</v>
+        <v>3.580139449939393</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1.329341105810719</v>
+        <v>1.576902124073223</v>
       </c>
       <c r="AK31" t="n">
-        <v>-232.1598007510398</v>
+        <v>-175.6697597579443</v>
       </c>
       <c r="AL31" t="n">
-        <v>-60.78480479049679</v>
+        <v>-72.10465949373764</v>
       </c>
       <c r="AM31" t="n">
         <v>0</v>
       </c>
       <c r="AN31" t="n">
-        <v>-80.70959594207832</v>
+        <v>-95.74001188847356</v>
       </c>
       <c r="AO31" t="n">
-        <v>50.111616</v>
+        <v>43.35</v>
       </c>
       <c r="AP31" t="n">
         <v>56.86374264883423</v>
@@ -5416,25 +5416,25 @@
         <v>79.64065551027335</v>
       </c>
       <c r="AR31" t="n">
-        <v>5.617583510194154</v>
+        <v>4.901665356551307</v>
       </c>
       <c r="AS31" t="n">
-        <v>-366.9129933049467</v>
+        <v>-317.3042579680406</v>
       </c>
       <c r="AT31" t="n">
         <v>0</v>
       </c>
       <c r="AU31" t="n">
-        <v>-491.8497441982852</v>
+        <v>-425.2812474199177</v>
       </c>
       <c r="AV31" t="n">
-        <v>36.18304</v>
+        <v>31</v>
       </c>
       <c r="AW31" t="n">
-        <v>4.444648368310663</v>
+        <v>3.835017245534339</v>
       </c>
       <c r="AX31" t="n">
-        <v>-307.3933331589693</v>
+        <v>-263.2828206510765</v>
       </c>
       <c r="AY31" t="n">
         <v>56.86374264883423</v>
@@ -5515,12 +5515,8 @@
       <c r="X32" t="n">
         <v>0</v>
       </c>
-      <c r="Y32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="n">
         <v>0</v>
       </c>
@@ -5675,53 +5671,53 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>32.0542</v>
+        <v>19</v>
       </c>
       <c r="Z33" t="n">
-        <v>9.736599999999999</v>
+        <v>5</v>
       </c>
       <c r="AA33" t="n">
         <v>0</v>
       </c>
       <c r="AB33" t="n">
-        <v>32.0542</v>
+        <v>19</v>
       </c>
       <c r="AC33" t="n">
-        <v>9.736599999999999</v>
+        <v>5</v>
       </c>
       <c r="AD33" t="n">
-        <v>57.87807000000001</v>
+        <v>33.15000000000001</v>
       </c>
       <c r="AE33" t="inlineStr"/>
       <c r="AF33" t="n">
-        <v>41.7908</v>
+        <v>24</v>
       </c>
       <c r="AG33" t="n">
-        <v>32.0542</v>
+        <v>19</v>
       </c>
       <c r="AH33" t="n">
-        <v>9.736599999999999</v>
+        <v>5</v>
       </c>
       <c r="AI33" t="n">
-        <v>5.464690759821302</v>
+        <v>3.239173788040405</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1.388453450578053</v>
+        <v>0.7130073385874185</v>
       </c>
       <c r="AK33" t="n">
-        <v>-268.1406482491951</v>
+        <v>-158.9393064476639</v>
       </c>
       <c r="AL33" t="n">
-        <v>-58.20053220832204</v>
+        <v>-29.88750293137339</v>
       </c>
       <c r="AM33" t="n">
         <v>0</v>
       </c>
       <c r="AN33" t="n">
-        <v>-77.42516257738448</v>
+        <v>-39.75985589291152</v>
       </c>
       <c r="AO33" t="n">
-        <v>57.87807000000001</v>
+        <v>33.15000000000001</v>
       </c>
       <c r="AP33" t="n">
         <v>56.86374264883423</v>
@@ -5730,25 +5726,25 @@
         <v>119.5708300148144</v>
       </c>
       <c r="AR33" t="n">
-        <v>5.863529140290257</v>
+        <v>3.455869410875179</v>
       </c>
       <c r="AS33" t="n">
-        <v>-351.0898531362959</v>
+        <v>-200.8553616797221</v>
       </c>
       <c r="AT33" t="n">
         <v>0</v>
       </c>
       <c r="AU33" t="n">
-        <v>-472.0086977081301</v>
+        <v>-269.887352626056</v>
       </c>
       <c r="AV33" t="n">
-        <v>41.7908</v>
+        <v>24</v>
       </c>
       <c r="AW33" t="n">
-        <v>5.093484957233274</v>
+        <v>2.996882687889133</v>
       </c>
       <c r="AX33" t="n">
-        <v>-355.1498660494804</v>
+        <v>-203.7519550100825</v>
       </c>
       <c r="AY33" t="n">
         <v>56.86374264883423</v>
@@ -5834,44 +5830,44 @@
         <v>-0.12</v>
       </c>
       <c r="Y34" t="n">
-        <v>85.0872</v>
+        <v>105</v>
       </c>
       <c r="Z34" t="n">
-        <v>25.8456</v>
+        <v>30</v>
       </c>
       <c r="AA34" t="n">
         <v>0</v>
       </c>
       <c r="AB34" t="n">
-        <v>85.0872</v>
+        <v>105</v>
       </c>
       <c r="AC34" t="n">
-        <v>25.8456</v>
+        <v>30</v>
       </c>
       <c r="AD34" t="n">
-        <v>153.63612</v>
+        <v>186.75</v>
       </c>
       <c r="AE34" t="inlineStr"/>
       <c r="AF34" t="n">
-        <v>110.9328</v>
+        <v>135</v>
       </c>
       <c r="AG34" t="n">
-        <v>85.0872</v>
+        <v>105</v>
       </c>
       <c r="AH34" t="n">
-        <v>25.8456</v>
+        <v>30</v>
       </c>
       <c r="AI34" t="n">
-        <v>17.6672336878349</v>
+        <v>21.80186370244486</v>
       </c>
       <c r="AJ34" t="n">
-        <v>5.366497604837231</v>
+        <v>6.229103914984246</v>
       </c>
       <c r="AK34" t="n">
-        <v>-348.7764733937016</v>
+        <v>-430.3999862063704</v>
       </c>
       <c r="AL34" t="n">
-        <v>-105.9423417475748</v>
+        <v>-122.9714246303915</v>
       </c>
       <c r="AM34" t="n">
         <v>0</v>
@@ -5880,7 +5876,7 @@
         <v>0</v>
       </c>
       <c r="AO34" t="n">
-        <v>153.63612</v>
+        <v>186.75</v>
       </c>
       <c r="AP34" t="n">
         <v>107.8197313672914</v>
@@ -5901,7 +5897,7 @@
         <v>0</v>
       </c>
       <c r="AV34" t="n">
-        <v>110.9328</v>
+        <v>135</v>
       </c>
       <c r="AW34" t="n">
         <v>0</v>
@@ -5993,53 +5989,53 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>67.30795999999999</v>
+        <v>47</v>
       </c>
       <c r="Z35" t="n">
-        <v>20.44508</v>
+        <v>17</v>
       </c>
       <c r="AA35" t="n">
         <v>0</v>
       </c>
       <c r="AB35" t="n">
-        <v>67.30795999999999</v>
+        <v>47</v>
       </c>
       <c r="AC35" t="n">
-        <v>20.44508</v>
+        <v>17</v>
       </c>
       <c r="AD35" t="n">
-        <v>121.533366</v>
+        <v>88.95</v>
       </c>
       <c r="AE35" t="inlineStr"/>
       <c r="AF35" t="n">
-        <v>87.75304</v>
+        <v>64</v>
       </c>
       <c r="AG35" t="n">
-        <v>67.30795999999999</v>
+        <v>47</v>
       </c>
       <c r="AH35" t="n">
-        <v>20.44508</v>
+        <v>17</v>
       </c>
       <c r="AI35" t="n">
-        <v>11.5820432597846</v>
+        <v>8.087543185232136</v>
       </c>
       <c r="AJ35" t="n">
-        <v>2.781398979883338</v>
+        <v>2.312721821485496</v>
       </c>
       <c r="AK35" t="n">
-        <v>-428.683586394765</v>
+        <v>-299.3424338006077</v>
       </c>
       <c r="AL35" t="n">
-        <v>-83.51844178629871</v>
+        <v>-69.44524112241567</v>
       </c>
       <c r="AM35" t="n">
         <v>0</v>
       </c>
       <c r="AN35" t="n">
-        <v>-114.7032831137215</v>
+        <v>-95.37530853062279</v>
       </c>
       <c r="AO35" t="n">
-        <v>121.533366</v>
+        <v>88.95</v>
       </c>
       <c r="AP35" t="n">
         <v>74.70889227763416</v>
@@ -6048,25 +6044,25 @@
         <v>186.6384997447397</v>
       </c>
       <c r="AR35" t="n">
-        <v>11.68065533812604</v>
+        <v>8.429995966359613</v>
       </c>
       <c r="AS35" t="n">
-        <v>-435.4626791751494</v>
+        <v>-369.9705618455438</v>
       </c>
       <c r="AT35" t="n">
         <v>0</v>
       </c>
       <c r="AU35" t="n">
-        <v>-865.1763690012425</v>
+        <v>-517.2548711182236</v>
       </c>
       <c r="AV35" t="n">
-        <v>87.75304</v>
+        <v>64</v>
       </c>
       <c r="AW35" t="n">
-        <v>0</v>
+        <v>7.689732085147683</v>
       </c>
       <c r="AX35" t="n">
-        <v>0</v>
+        <v>-416.6557412062738</v>
       </c>
       <c r="AY35" t="n">
         <v>74.70889227763416</v>
@@ -6152,53 +6148,53 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>93.467</v>
+        <v>93</v>
       </c>
       <c r="Z36" t="n">
-        <v>28.391</v>
+        <v>33</v>
       </c>
       <c r="AA36" t="n">
         <v>0</v>
       </c>
       <c r="AB36" t="n">
-        <v>93.467</v>
+        <v>93</v>
       </c>
       <c r="AC36" t="n">
-        <v>28.391</v>
+        <v>33</v>
       </c>
       <c r="AD36" t="n">
-        <v>168.76695</v>
+        <v>175.05</v>
       </c>
       <c r="AE36" t="inlineStr"/>
       <c r="AF36" t="n">
-        <v>121.858</v>
+        <v>126</v>
       </c>
       <c r="AG36" t="n">
-        <v>93.467</v>
+        <v>93</v>
       </c>
       <c r="AH36" t="n">
-        <v>28.391</v>
+        <v>33</v>
       </c>
       <c r="AI36" t="n">
-        <v>21.17682000043725</v>
+        <v>21.07101180139152</v>
       </c>
       <c r="AJ36" t="n">
-        <v>4.855431003873496</v>
+        <v>5.643662538403914</v>
       </c>
       <c r="AK36" t="n">
-        <v>-473.0741558222231</v>
+        <v>-470.7104806131228</v>
       </c>
       <c r="AL36" t="n">
-        <v>-90.74533181354064</v>
+        <v>-105.4769451532825</v>
       </c>
       <c r="AM36" t="n">
         <v>0</v>
       </c>
       <c r="AN36" t="n">
-        <v>-176.2523662763141</v>
+        <v>-204.865206830276</v>
       </c>
       <c r="AO36" t="n">
-        <v>168.76695</v>
+        <v>175.05</v>
       </c>
       <c r="AP36" t="n">
         <v>88.72520219521807</v>
@@ -6207,19 +6203,19 @@
         <v>191.2333729393297</v>
       </c>
       <c r="AR36" t="n">
-        <v>16.54672310527668</v>
+        <v>16.65542980225642</v>
       </c>
       <c r="AS36" t="n">
-        <v>-435.8317606597613</v>
+        <v>-436.0265357709644</v>
       </c>
       <c r="AT36" t="n">
         <v>0</v>
       </c>
       <c r="AU36" t="n">
-        <v>-1480.373842411874</v>
+        <v>-1587.762495699939</v>
       </c>
       <c r="AV36" t="n">
-        <v>121.858</v>
+        <v>126</v>
       </c>
       <c r="AW36" t="n">
         <v>0</v>
@@ -6311,53 +6307,53 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.100224</v>
+        <v>2</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.6379519999999999</v>
+        <v>6.3</v>
       </c>
       <c r="AA37" t="n">
         <v>0</v>
       </c>
       <c r="AB37" t="n">
-        <v>2.100224</v>
+        <v>2</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.6379519999999999</v>
+        <v>6.3</v>
       </c>
       <c r="AD37" t="n">
-        <v>3.7922304</v>
+        <v>12.15</v>
       </c>
       <c r="AE37" t="inlineStr"/>
       <c r="AF37" t="n">
-        <v>2.738176</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AG37" t="n">
-        <v>2.100224</v>
+        <v>2</v>
       </c>
       <c r="AH37" t="n">
-        <v>0.6379519999999999</v>
+        <v>6.3</v>
       </c>
       <c r="AI37" t="n">
-        <v>0.5979027869104363</v>
+        <v>0.5693587287908199</v>
       </c>
       <c r="AJ37" t="n">
-        <v>0.1195083967305434</v>
+        <v>1.180187899751255</v>
       </c>
       <c r="AK37" t="n">
-        <v>-39.41365312961763</v>
+        <v>-37.53288676552926</v>
       </c>
       <c r="AL37" t="n">
-        <v>-5.528011961739097</v>
+        <v>-54.59106030742669</v>
       </c>
       <c r="AM37" t="n">
         <v>0</v>
       </c>
       <c r="AN37" t="n">
-        <v>-7.499503729566232</v>
+        <v>-74.06023487822505</v>
       </c>
       <c r="AO37" t="n">
-        <v>3.7922304</v>
+        <v>12.15</v>
       </c>
       <c r="AP37" t="n">
         <v>25.25707130434771</v>
@@ -6366,25 +6362,25 @@
         <v>108.3758623250562</v>
       </c>
       <c r="AR37" t="n">
-        <v>0.5320845386771486</v>
+        <v>1.686111565353412</v>
       </c>
       <c r="AS37" t="n">
-        <v>-33.12109692989416</v>
+        <v>-106.1454290973517</v>
       </c>
       <c r="AT37" t="n">
         <v>0</v>
       </c>
       <c r="AU37" t="n">
-        <v>-45.35909219512575</v>
+        <v>-145.3979136166433</v>
       </c>
       <c r="AV37" t="n">
-        <v>2.738176</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AW37" t="n">
-        <v>0.5772155380021164</v>
+        <v>1.728929880265275</v>
       </c>
       <c r="AX37" t="n">
-        <v>-51.9434008359583</v>
+        <v>-157.5150322141534</v>
       </c>
       <c r="AY37" t="n">
         <v>25.25707130434771</v>
@@ -6470,44 +6466,44 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>19.338</v>
+        <v>25</v>
       </c>
       <c r="Z38" t="n">
-        <v>5.874</v>
+        <v>15</v>
       </c>
       <c r="AA38" t="n">
         <v>0</v>
       </c>
       <c r="AB38" t="n">
-        <v>19.338</v>
+        <v>25</v>
       </c>
       <c r="AC38" t="n">
-        <v>5.874</v>
+        <v>15</v>
       </c>
       <c r="AD38" t="n">
-        <v>34.9173</v>
+        <v>56.25</v>
       </c>
       <c r="AE38" t="inlineStr"/>
       <c r="AF38" t="n">
-        <v>25.212</v>
+        <v>40</v>
       </c>
       <c r="AG38" t="n">
-        <v>19.338</v>
+        <v>25</v>
       </c>
       <c r="AH38" t="n">
-        <v>5.874</v>
+        <v>15</v>
       </c>
       <c r="AI38" t="n">
-        <v>3.613198426782055</v>
+        <v>4.671111835223467</v>
       </c>
       <c r="AJ38" t="n">
-        <v>1.097524436804106</v>
+        <v>2.802667101134083</v>
       </c>
       <c r="AK38" t="n">
-        <v>-121.3974375236764</v>
+        <v>-156.941562627568</v>
       </c>
       <c r="AL38" t="n">
-        <v>-36.87498955497338</v>
+        <v>-94.16493757654081</v>
       </c>
       <c r="AM38" t="n">
         <v>0</v>
@@ -6516,7 +6512,7 @@
         <v>0</v>
       </c>
       <c r="AO38" t="n">
-        <v>34.9173</v>
+        <v>56.25</v>
       </c>
       <c r="AP38" t="n">
         <v>75.20242638779567</v>
@@ -6525,10 +6521,10 @@
         <v>75.20242638779567</v>
       </c>
       <c r="AR38" t="n">
-        <v>4.756048334399308</v>
+        <v>7.405720210945518</v>
       </c>
       <c r="AS38" t="n">
-        <v>-223.9340710514557</v>
+        <v>-361.4879977339381</v>
       </c>
       <c r="AT38" t="n">
         <v>0</v>
@@ -6537,13 +6533,13 @@
         <v>0</v>
       </c>
       <c r="AV38" t="n">
-        <v>25.212</v>
+        <v>40</v>
       </c>
       <c r="AW38" t="n">
-        <v>3.483743857572264</v>
+        <v>5.406142367021907</v>
       </c>
       <c r="AX38" t="n">
-        <v>-161.5493429533955</v>
+        <v>-256.652264686668</v>
       </c>
       <c r="AY38" t="n">
         <v>75.20242638779567</v>
@@ -6629,53 +6625,53 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>-5.579892</v>
+        <v>4</v>
       </c>
       <c r="Z39" t="n">
-        <v>-1.694916</v>
+        <v>6.5</v>
       </c>
       <c r="AA39" t="n">
         <v>0</v>
       </c>
       <c r="AB39" t="n">
-        <v>-5.579892</v>
+        <v>4</v>
       </c>
       <c r="AC39" t="n">
-        <v>-1.694916</v>
+        <v>6.5</v>
       </c>
       <c r="AD39" t="n">
-        <v>-10.0752282</v>
+        <v>15.15</v>
       </c>
       <c r="AE39" t="inlineStr"/>
       <c r="AF39" t="n">
-        <v>-7.274808</v>
+        <v>10.5</v>
       </c>
       <c r="AG39" t="n">
-        <v>-5.579892</v>
+        <v>4</v>
       </c>
       <c r="AH39" t="n">
-        <v>-1.694916</v>
+        <v>6.5</v>
       </c>
       <c r="AI39" t="n">
-        <v>19.67559514038249</v>
+        <v>1.13873388792058</v>
       </c>
       <c r="AJ39" t="n">
-        <v>5.976545964143487</v>
+        <v>1.217654182283043</v>
       </c>
       <c r="AK39" t="n">
-        <v>-530.1781495832789</v>
+        <v>-75.06566492538141</v>
       </c>
       <c r="AL39" t="n">
-        <v>-161.0438747880949</v>
+        <v>-56.32410984099582</v>
       </c>
       <c r="AM39" t="n">
         <v>0</v>
       </c>
       <c r="AN39" t="n">
-        <v>0</v>
+        <v>-76.41135344578778</v>
       </c>
       <c r="AO39" t="n">
-        <v>-10.0752282</v>
+        <v>15.15</v>
       </c>
       <c r="AP39" t="n">
         <v>25.25707130434771</v>
@@ -6684,25 +6680,25 @@
         <v>108.3758623250562</v>
       </c>
       <c r="AR39" t="n">
-        <v>0</v>
+        <v>2.09396510520754</v>
       </c>
       <c r="AS39" t="n">
-        <v>0</v>
+        <v>-132.3669314655131</v>
       </c>
       <c r="AT39" t="n">
         <v>0</v>
       </c>
       <c r="AU39" t="n">
-        <v>0</v>
+        <v>-181.3310848250586</v>
       </c>
       <c r="AV39" t="n">
-        <v>-7.274808</v>
+        <v>10.5</v>
       </c>
       <c r="AW39" t="n">
-        <v>0</v>
+        <v>2.176677257981596</v>
       </c>
       <c r="AX39" t="n">
-        <v>0</v>
+        <v>-199.2983428546636</v>
       </c>
       <c r="AY39" t="n">
         <v>25.25707130434771</v>
@@ -6788,53 +6784,53 @@
         <v>0.25</v>
       </c>
       <c r="Y40" t="n">
-        <v>112.805</v>
+        <v>92.5</v>
       </c>
       <c r="Z40" t="n">
-        <v>34.265</v>
+        <v>31</v>
       </c>
       <c r="AA40" t="n">
         <v>0</v>
       </c>
       <c r="AB40" t="n">
-        <v>112.805</v>
+        <v>92.5</v>
       </c>
       <c r="AC40" t="n">
-        <v>34.265</v>
+        <v>31</v>
       </c>
       <c r="AD40" t="n">
-        <v>203.68425</v>
+        <v>171.375</v>
       </c>
       <c r="AE40" t="inlineStr"/>
       <c r="AF40" t="n">
-        <v>147.07</v>
+        <v>123.5</v>
       </c>
       <c r="AG40" t="n">
-        <v>112.805</v>
+        <v>92.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>34.265</v>
+        <v>31</v>
       </c>
       <c r="AI40" t="n">
-        <v>20.04612012963378</v>
+        <v>16.43780073570431</v>
       </c>
       <c r="AJ40" t="n">
-        <v>4.968685124275233</v>
+        <v>4.495235337882162</v>
       </c>
       <c r="AK40" t="n">
-        <v>-633.7130223492583</v>
+        <v>-519.6441165489686</v>
       </c>
       <c r="AL40" t="n">
-        <v>-131.0926502891108</v>
+        <v>-118.6012595640576</v>
       </c>
       <c r="AM40" t="n">
         <v>0</v>
       </c>
       <c r="AN40" t="n">
-        <v>-183.9642523645589</v>
+        <v>-166.4348992645943</v>
       </c>
       <c r="AO40" t="n">
-        <v>203.68425</v>
+        <v>171.375</v>
       </c>
       <c r="AP40" t="n">
         <v>83.35514855552115</v>
@@ -6843,19 +6839,19 @@
         <v>186.7945470031471</v>
       </c>
       <c r="AR40" t="n">
-        <v>0</v>
+        <v>16.29127140274526</v>
       </c>
       <c r="AS40" t="n">
-        <v>0</v>
+        <v>-437.3274711063775</v>
       </c>
       <c r="AT40" t="n">
         <v>0</v>
       </c>
       <c r="AU40" t="n">
-        <v>0</v>
+        <v>-1608.536632086381</v>
       </c>
       <c r="AV40" t="n">
-        <v>147.07</v>
+        <v>123.5</v>
       </c>
       <c r="AW40" t="n">
         <v>0</v>
@@ -6947,53 +6943,53 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>38.24822</v>
+        <v>44</v>
       </c>
       <c r="Z41" t="n">
-        <v>11.61806</v>
+        <v>16.1</v>
       </c>
       <c r="AA41" t="n">
         <v>0</v>
       </c>
       <c r="AB41" t="n">
-        <v>38.24822</v>
+        <v>44</v>
       </c>
       <c r="AC41" t="n">
-        <v>11.61806</v>
+        <v>16.1</v>
       </c>
       <c r="AD41" t="n">
-        <v>69.06218699999999</v>
+        <v>83.55000000000001</v>
       </c>
       <c r="AE41" t="inlineStr"/>
       <c r="AF41" t="n">
-        <v>49.86628</v>
+        <v>60.1</v>
       </c>
       <c r="AG41" t="n">
-        <v>38.24822</v>
+        <v>44</v>
       </c>
       <c r="AH41" t="n">
-        <v>11.61806</v>
+        <v>16.1</v>
       </c>
       <c r="AI41" t="n">
-        <v>7.874375540990374</v>
+        <v>9.058526744606066</v>
       </c>
       <c r="AJ41" t="n">
-        <v>1.870223247401512</v>
+        <v>2.59170586854986</v>
       </c>
       <c r="AK41" t="n">
-        <v>-361.8157580214609</v>
+        <v>-416.2257316273616</v>
       </c>
       <c r="AL41" t="n">
-        <v>-69.37785688877975</v>
+        <v>-96.14199753739902</v>
       </c>
       <c r="AM41" t="n">
         <v>0</v>
       </c>
       <c r="AN41" t="n">
-        <v>-94.65155215734013</v>
+        <v>-131.1656154068042</v>
       </c>
       <c r="AO41" t="n">
-        <v>69.06218699999999</v>
+        <v>83.55000000000001</v>
       </c>
       <c r="AP41" t="n">
         <v>50.29503576592909</v>
@@ -7002,25 +6998,25 @@
         <v>130.502592292854</v>
       </c>
       <c r="AR41" t="n">
-        <v>7.726025913805899</v>
+        <v>9.76798564720592</v>
       </c>
       <c r="AS41" t="n">
-        <v>-418.8068006535968</v>
+        <v>-435.4540394489374</v>
       </c>
       <c r="AT41" t="n">
         <v>0</v>
       </c>
       <c r="AU41" t="n">
-        <v>-579.3383246812492</v>
+        <v>-853.3250361202806</v>
       </c>
       <c r="AV41" t="n">
-        <v>49.86628</v>
+        <v>60.1</v>
       </c>
       <c r="AW41" t="n">
-        <v>16.66666666666667</v>
+        <v>0</v>
       </c>
       <c r="AX41" t="n">
-        <v>-462.0669994141886</v>
+        <v>0</v>
       </c>
       <c r="AY41" t="n">
         <v>50.29503576592909</v>
@@ -7106,53 +7102,53 @@
         <v>0.16</v>
       </c>
       <c r="Y42" t="n">
-        <v>108.42172</v>
+        <v>100</v>
       </c>
       <c r="Z42" t="n">
-        <v>32.93356</v>
+        <v>33.5</v>
       </c>
       <c r="AA42" t="n">
         <v>0</v>
       </c>
       <c r="AB42" t="n">
-        <v>108.42172</v>
+        <v>100</v>
       </c>
       <c r="AC42" t="n">
-        <v>32.93356</v>
+        <v>33.5</v>
       </c>
       <c r="AD42" t="n">
-        <v>195.769662</v>
+        <v>185.25</v>
       </c>
       <c r="AE42" t="inlineStr"/>
       <c r="AF42" t="n">
-        <v>141.35528</v>
+        <v>133.5</v>
       </c>
       <c r="AG42" t="n">
-        <v>108.42172</v>
+        <v>100</v>
       </c>
       <c r="AH42" t="n">
-        <v>32.93356</v>
+        <v>33.5</v>
       </c>
       <c r="AI42" t="n">
-        <v>15.07270125635471</v>
+        <v>13.90192044209841</v>
       </c>
       <c r="AJ42" t="n">
-        <v>4.165566675048728</v>
+        <v>4.237212242288181</v>
       </c>
       <c r="AK42" t="n">
-        <v>-343.8562399144996</v>
+        <v>-317.1470069968449</v>
       </c>
       <c r="AL42" t="n">
-        <v>-88.79287336560941</v>
+        <v>-90.32006432793524</v>
       </c>
       <c r="AM42" t="n">
         <v>0</v>
       </c>
       <c r="AN42" t="n">
-        <v>-146.9783599351941</v>
+        <v>-149.5063108218183</v>
       </c>
       <c r="AO42" t="n">
-        <v>195.769662</v>
+        <v>185.25</v>
       </c>
       <c r="AP42" t="n">
         <v>141.9525202393384</v>
@@ -7161,25 +7157,25 @@
         <v>197.9242103400195</v>
       </c>
       <c r="AR42" t="n">
-        <v>16.59019986549415</v>
+        <v>16.11079685248927</v>
       </c>
       <c r="AS42" t="n">
-        <v>-437.1263336668806</v>
+        <v>-436.4712703992278</v>
       </c>
       <c r="AT42" t="n">
         <v>0</v>
       </c>
       <c r="AU42" t="n">
-        <v>-1808.462140985908</v>
+        <v>-1513.585464311942</v>
       </c>
       <c r="AV42" t="n">
-        <v>141.35528</v>
+        <v>133.5</v>
       </c>
       <c r="AW42" t="n">
-        <v>16.66666666666667</v>
+        <v>13.24761818605021</v>
       </c>
       <c r="AX42" t="n">
-        <v>-445.0671297234348</v>
+        <v>-435.2630876175085</v>
       </c>
       <c r="AY42" t="n">
         <v>141.9525202393384</v>
@@ -7265,53 +7261,53 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>18.77544</v>
+        <v>20</v>
       </c>
       <c r="Z43" t="n">
-        <v>5.70312</v>
+        <v>10</v>
       </c>
       <c r="AA43" t="n">
         <v>0</v>
       </c>
       <c r="AB43" t="n">
-        <v>18.77544</v>
+        <v>20</v>
       </c>
       <c r="AC43" t="n">
-        <v>5.70312</v>
+        <v>10</v>
       </c>
       <c r="AD43" t="n">
-        <v>33.901524</v>
+        <v>42</v>
       </c>
       <c r="AE43" t="inlineStr"/>
       <c r="AF43" t="n">
-        <v>24.47856</v>
+        <v>30</v>
       </c>
       <c r="AG43" t="n">
-        <v>18.77544</v>
+        <v>20</v>
       </c>
       <c r="AH43" t="n">
-        <v>5.70312</v>
+        <v>10</v>
       </c>
       <c r="AI43" t="n">
-        <v>3.200890163522384</v>
+        <v>3.409656618989899</v>
       </c>
       <c r="AJ43" t="n">
-        <v>0.8993271054301909</v>
+        <v>1.576902124073223</v>
       </c>
       <c r="AK43" t="n">
-        <v>-157.0608111499856</v>
+        <v>-167.304533102804</v>
       </c>
       <c r="AL43" t="n">
-        <v>-41.12214654931075</v>
+        <v>-72.10465949373764</v>
       </c>
       <c r="AM43" t="n">
         <v>0</v>
       </c>
       <c r="AN43" t="n">
-        <v>-54.60167098481156</v>
+        <v>-95.74001188847356</v>
       </c>
       <c r="AO43" t="n">
-        <v>33.901524</v>
+        <v>42</v>
       </c>
       <c r="AP43" t="n">
         <v>56.86374264883423</v>
@@ -7320,25 +7316,25 @@
         <v>79.64065551027335</v>
       </c>
       <c r="AR43" t="n">
-        <v>3.878337276164725</v>
+        <v>4.757070779713587</v>
       </c>
       <c r="AS43" t="n">
-        <v>-248.03785160089</v>
+        <v>-307.4035619460483</v>
       </c>
       <c r="AT43" t="n">
         <v>0</v>
       </c>
       <c r="AU43" t="n">
-        <v>-332.3726882895336</v>
+        <v>-411.9985643971208</v>
       </c>
       <c r="AV43" t="n">
-        <v>24.47856</v>
+        <v>30</v>
       </c>
       <c r="AW43" t="n">
-        <v>3.054715395800247</v>
+        <v>3.716315911648871</v>
       </c>
       <c r="AX43" t="n">
-        <v>-207.8202827390717</v>
+        <v>-254.775418971151</v>
       </c>
       <c r="AY43" t="n">
         <v>56.86374264883423</v>
@@ -7419,12 +7415,8 @@
       <c r="X44" t="n">
         <v>0</v>
       </c>
-      <c r="Y44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="n">
         <v>0</v>
       </c>
@@ -7577,53 +7569,53 @@
       </c>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="n">
-        <v>24.75264</v>
+        <v>19</v>
       </c>
       <c r="Z45" t="n">
-        <v>7.51872</v>
+        <v>5</v>
       </c>
       <c r="AA45" t="n">
         <v>0</v>
       </c>
       <c r="AB45" t="n">
-        <v>24.75264</v>
+        <v>19</v>
       </c>
       <c r="AC45" t="n">
-        <v>7.51872</v>
+        <v>5</v>
       </c>
       <c r="AD45" t="n">
-        <v>44.69414399999999</v>
+        <v>33.15000000000001</v>
       </c>
       <c r="AE45" t="inlineStr"/>
       <c r="AF45" t="n">
-        <v>32.27136</v>
+        <v>24</v>
       </c>
       <c r="AG45" t="n">
-        <v>24.75264</v>
+        <v>19</v>
       </c>
       <c r="AH45" t="n">
-        <v>7.51872</v>
+        <v>5</v>
       </c>
       <c r="AI45" t="n">
-        <v>4.21990014067371</v>
+        <v>3.239173788040405</v>
       </c>
       <c r="AJ45" t="n">
-        <v>1.072180507356799</v>
+        <v>0.7130073385874185</v>
       </c>
       <c r="AK45" t="n">
-        <v>-207.0614439130896</v>
+        <v>-158.9393064476639</v>
       </c>
       <c r="AL45" t="n">
-        <v>-44.94315320803513</v>
+        <v>-29.88750293137339</v>
       </c>
       <c r="AM45" t="n">
         <v>0</v>
       </c>
       <c r="AN45" t="n">
-        <v>-59.78864473983032</v>
+        <v>-39.75985589291152</v>
       </c>
       <c r="AO45" t="n">
-        <v>44.69414399999999</v>
+        <v>33.15000000000001</v>
       </c>
       <c r="AP45" t="n">
         <v>56.86374264883423</v>
@@ -7632,25 +7624,25 @@
         <v>119.5708300148144</v>
       </c>
       <c r="AR45" t="n">
-        <v>4.598892321041914</v>
+        <v>3.455869410875179</v>
       </c>
       <c r="AS45" t="n">
-        <v>-270.9454494982839</v>
+        <v>-200.8553616797221</v>
       </c>
       <c r="AT45" t="n">
         <v>0</v>
       </c>
       <c r="AU45" t="n">
-        <v>-364.1554084611248</v>
+        <v>-269.887352626056</v>
       </c>
       <c r="AV45" t="n">
-        <v>32.27136</v>
+        <v>24</v>
       </c>
       <c r="AW45" t="n">
-        <v>3.985427171283381</v>
+        <v>2.996882687889133</v>
       </c>
       <c r="AX45" t="n">
-        <v>-274.1002508132449</v>
+        <v>-203.7519550100825</v>
       </c>
       <c r="AY45" t="n">
         <v>56.86374264883423</v>
@@ -7736,44 +7728,44 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.69</v>
+        <v>107.5</v>
       </c>
       <c r="Z46" t="n">
-        <v>29.37</v>
+        <v>32.5</v>
       </c>
       <c r="AA46" t="n">
         <v>0</v>
       </c>
       <c r="AB46" t="n">
-        <v>96.69</v>
+        <v>107.5</v>
       </c>
       <c r="AC46" t="n">
-        <v>29.37</v>
+        <v>32.5</v>
       </c>
       <c r="AD46" t="n">
-        <v>174.5865</v>
+        <v>193.875</v>
       </c>
       <c r="AE46" t="inlineStr"/>
       <c r="AF46" t="n">
-        <v>126.06</v>
+        <v>140</v>
       </c>
       <c r="AG46" t="n">
-        <v>96.69</v>
+        <v>107.5</v>
       </c>
       <c r="AH46" t="n">
-        <v>29.37</v>
+        <v>32.5</v>
       </c>
       <c r="AI46" t="n">
-        <v>13.41808665706805</v>
+        <v>14.91823679423739</v>
       </c>
       <c r="AJ46" t="n">
-        <v>4.075801066481417</v>
+        <v>4.510164612211309</v>
       </c>
       <c r="AK46" t="n">
-        <v>-305.3877930430573</v>
+        <v>-339.530331493729</v>
       </c>
       <c r="AL46" t="n">
-        <v>-92.76284498577506</v>
+        <v>-102.6487048701971</v>
       </c>
       <c r="AM46" t="n">
         <v>0</v>
@@ -7782,7 +7774,7 @@
         <v>0</v>
       </c>
       <c r="AO46" t="n">
-        <v>174.5865</v>
+        <v>193.875</v>
       </c>
       <c r="AP46" t="n">
         <v>142.4985880932212</v>
@@ -7803,13 +7795,13 @@
         <v>0</v>
       </c>
       <c r="AV46" t="n">
-        <v>126.06</v>
+        <v>140</v>
       </c>
       <c r="AW46" t="n">
-        <v>11.75308679189007</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="AX46" t="n">
-        <v>-413.2750531450196</v>
+        <v>-440.3539779019671</v>
       </c>
       <c r="AY46" t="n">
         <v>142.4985880932212</v>
@@ -7895,53 +7887,53 @@
         <v>0.13</v>
       </c>
       <c r="Y47" t="n">
-        <v>65.25695999999999</v>
+        <v>50.5</v>
       </c>
       <c r="Z47" t="n">
-        <v>19.82208</v>
+        <v>18</v>
       </c>
       <c r="AA47" t="n">
         <v>0</v>
       </c>
       <c r="AB47" t="n">
-        <v>65.25695999999999</v>
+        <v>50.5</v>
       </c>
       <c r="AC47" t="n">
-        <v>19.82208</v>
+        <v>18</v>
       </c>
       <c r="AD47" t="n">
-        <v>117.830016</v>
+        <v>95.17500000000001</v>
       </c>
       <c r="AE47" t="inlineStr"/>
       <c r="AF47" t="n">
-        <v>85.07903999999999</v>
+        <v>68.5</v>
       </c>
       <c r="AG47" t="n">
-        <v>65.25695999999999</v>
+        <v>50.5</v>
       </c>
       <c r="AH47" t="n">
-        <v>19.82208</v>
+        <v>18</v>
       </c>
       <c r="AI47" t="n">
-        <v>11.22911664121202</v>
+        <v>8.689807039451534</v>
       </c>
       <c r="AJ47" t="n">
-        <v>2.864800096984381</v>
+        <v>2.601462699460342</v>
       </c>
       <c r="AK47" t="n">
-        <v>-415.6207921027427</v>
+        <v>-321.6338916368233</v>
       </c>
       <c r="AL47" t="n">
-        <v>-90.70118289660682</v>
+        <v>-82.36377272914463</v>
       </c>
       <c r="AM47" t="n">
         <v>0</v>
       </c>
       <c r="AN47" t="n">
-        <v>-124.3445951429526</v>
+        <v>-112.9146241248722</v>
       </c>
       <c r="AO47" t="n">
-        <v>117.830016</v>
+        <v>95.17500000000001</v>
       </c>
       <c r="AP47" t="n">
         <v>74.70889227763416</v>
@@ -7950,25 +7942,25 @@
         <v>152.0469153189813</v>
       </c>
       <c r="AR47" t="n">
-        <v>12.61347235793704</v>
+        <v>9.532846732585368</v>
       </c>
       <c r="AS47" t="n">
-        <v>-436.1692849412478</v>
+        <v>-434.8967960326866</v>
       </c>
       <c r="AT47" t="n">
         <v>0</v>
       </c>
       <c r="AU47" t="n">
-        <v>-1127.627209692168</v>
+        <v>-649.1999137525283</v>
       </c>
       <c r="AV47" t="n">
-        <v>85.07903999999999</v>
+        <v>68.5</v>
       </c>
       <c r="AW47" t="n">
-        <v>0</v>
+        <v>10.99782669517835</v>
       </c>
       <c r="AX47" t="n">
-        <v>0</v>
+        <v>-436.7860900020997</v>
       </c>
       <c r="AY47" t="n">
         <v>74.70889227763416</v>
@@ -8054,53 +8046,53 @@
         <v>0</v>
       </c>
       <c r="Y48" t="n">
-        <v>93.467</v>
+        <v>95</v>
       </c>
       <c r="Z48" t="n">
-        <v>28.391</v>
+        <v>34</v>
       </c>
       <c r="AA48" t="n">
         <v>0</v>
       </c>
       <c r="AB48" t="n">
-        <v>93.467</v>
+        <v>95</v>
       </c>
       <c r="AC48" t="n">
-        <v>28.391</v>
+        <v>34</v>
       </c>
       <c r="AD48" t="n">
-        <v>168.76695</v>
+        <v>179.25</v>
       </c>
       <c r="AE48" t="inlineStr"/>
       <c r="AF48" t="n">
-        <v>121.858</v>
+        <v>129</v>
       </c>
       <c r="AG48" t="n">
-        <v>93.467</v>
+        <v>95</v>
       </c>
       <c r="AH48" t="n">
-        <v>28.391</v>
+        <v>34</v>
       </c>
       <c r="AI48" t="n">
-        <v>15.21608559826713</v>
+        <v>15.46565238892205</v>
       </c>
       <c r="AJ48" t="n">
-        <v>3.900845204247651</v>
+        <v>4.671506355690891</v>
       </c>
       <c r="AK48" t="n">
-        <v>-428.0299960060654</v>
+        <v>-435.0503345627463</v>
       </c>
       <c r="AL48" t="n">
-        <v>-94.12500525535908</v>
+        <v>-112.7205867592621</v>
       </c>
       <c r="AM48" t="n">
         <v>0</v>
       </c>
       <c r="AN48" t="n">
-        <v>-132.6047157932218</v>
+        <v>-158.8024492610173</v>
       </c>
       <c r="AO48" t="n">
-        <v>168.76695</v>
+        <v>179.25</v>
       </c>
       <c r="AP48" t="n">
         <v>100.7794436755942</v>
@@ -8109,19 +8101,19 @@
         <v>203.0346196264643</v>
       </c>
       <c r="AR48" t="n">
-        <v>15.69259110667715</v>
+        <v>16.26310908670812</v>
       </c>
       <c r="AS48" t="n">
-        <v>-436.4912448835483</v>
+        <v>-436.9403968814136</v>
       </c>
       <c r="AT48" t="n">
         <v>0</v>
       </c>
       <c r="AU48" t="n">
-        <v>-1290.401533662927</v>
+        <v>-1464.886203319393</v>
       </c>
       <c r="AV48" t="n">
-        <v>121.858</v>
+        <v>129</v>
       </c>
       <c r="AW48" t="n">
         <v>0</v>
@@ -8213,53 +8205,53 @@
         <v>0</v>
       </c>
       <c r="Y49" t="n">
-        <v>2.100224</v>
+        <v>0</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.6379519999999999</v>
+        <v>5</v>
       </c>
       <c r="AA49" t="n">
         <v>0</v>
       </c>
       <c r="AB49" t="n">
-        <v>2.100224</v>
+        <v>0</v>
       </c>
       <c r="AC49" t="n">
-        <v>0.6379519999999999</v>
+        <v>5</v>
       </c>
       <c r="AD49" t="n">
-        <v>3.7922304</v>
+        <v>7.5</v>
       </c>
       <c r="AE49" t="inlineStr"/>
       <c r="AF49" t="n">
-        <v>2.738176</v>
+        <v>5</v>
       </c>
       <c r="AG49" t="n">
-        <v>2.100224</v>
+        <v>0</v>
       </c>
       <c r="AH49" t="n">
-        <v>0.6379519999999999</v>
+        <v>5</v>
       </c>
       <c r="AI49" t="n">
-        <v>0.5979027869104363</v>
+        <v>0</v>
       </c>
       <c r="AJ49" t="n">
-        <v>0.1195083967305434</v>
+        <v>0.9366570632946468</v>
       </c>
       <c r="AK49" t="n">
-        <v>-39.41365312961763</v>
+        <v>0</v>
       </c>
       <c r="AL49" t="n">
-        <v>-5.528011961739097</v>
+        <v>-43.32623833922753</v>
       </c>
       <c r="AM49" t="n">
         <v>0</v>
       </c>
       <c r="AN49" t="n">
-        <v>-7.499503729566232</v>
+        <v>-58.77796418906749</v>
       </c>
       <c r="AO49" t="n">
-        <v>3.7922304</v>
+        <v>7.5</v>
       </c>
       <c r="AP49" t="n">
         <v>25.25707130434771</v>
@@ -8268,25 +8260,25 @@
         <v>108.3758623250562</v>
       </c>
       <c r="AR49" t="n">
-        <v>0.5320845386771486</v>
+        <v>1.047243357902796</v>
       </c>
       <c r="AS49" t="n">
-        <v>-33.12109692989416</v>
+        <v>-65.51217656086945</v>
       </c>
       <c r="AT49" t="n">
         <v>0</v>
       </c>
       <c r="AU49" t="n">
-        <v>-45.35909219512575</v>
+        <v>-89.72724229913322</v>
       </c>
       <c r="AV49" t="n">
-        <v>2.738176</v>
+        <v>5</v>
       </c>
       <c r="AW49" t="n">
-        <v>0.5772155380021164</v>
+        <v>1.048965304454323</v>
       </c>
       <c r="AX49" t="n">
-        <v>-51.9434008359583</v>
+        <v>-94.86578223497466</v>
       </c>
       <c r="AY49" t="n">
         <v>25.25707130434771</v>
@@ -8372,44 +8364,44 @@
         <v>0</v>
       </c>
       <c r="Y50" t="n">
-        <v>19.338</v>
+        <v>15</v>
       </c>
       <c r="Z50" t="n">
-        <v>5.874</v>
+        <v>13</v>
       </c>
       <c r="AA50" t="n">
         <v>0</v>
       </c>
       <c r="AB50" t="n">
-        <v>19.338</v>
+        <v>15</v>
       </c>
       <c r="AC50" t="n">
-        <v>5.874</v>
+        <v>13</v>
       </c>
       <c r="AD50" t="n">
-        <v>34.9173</v>
+        <v>39.75</v>
       </c>
       <c r="AE50" t="inlineStr"/>
       <c r="AF50" t="n">
-        <v>25.212</v>
+        <v>28</v>
       </c>
       <c r="AG50" t="n">
-        <v>19.338</v>
+        <v>15</v>
       </c>
       <c r="AH50" t="n">
-        <v>5.874</v>
+        <v>13</v>
       </c>
       <c r="AI50" t="n">
-        <v>3.148155641020786</v>
+        <v>2.441945114040323</v>
       </c>
       <c r="AJ50" t="n">
-        <v>0.9562657066581908</v>
+        <v>2.116352432168281</v>
       </c>
       <c r="AK50" t="n">
-        <v>-88.55793020815143</v>
+        <v>-68.6921580888547</v>
       </c>
       <c r="AL50" t="n">
-        <v>-26.89984910759549</v>
+        <v>-59.53320367700739</v>
       </c>
       <c r="AM50" t="n">
         <v>0</v>
@@ -8418,7 +8410,7 @@
         <v>0</v>
       </c>
       <c r="AO50" t="n">
-        <v>34.9173</v>
+        <v>39.75</v>
       </c>
       <c r="AP50" t="n">
         <v>100.7794436755945</v>
@@ -8427,10 +8419,10 @@
         <v>100.7794436755945</v>
       </c>
       <c r="AR50" t="n">
-        <v>4.205748665763006</v>
+        <v>4.758357849341841</v>
       </c>
       <c r="AS50" t="n">
-        <v>-163.8331166805169</v>
+        <v>-186.5881293351538</v>
       </c>
       <c r="AT50" t="n">
         <v>0</v>
@@ -8439,13 +8431,13 @@
         <v>0</v>
       </c>
       <c r="AV50" t="n">
-        <v>25.212</v>
+        <v>28</v>
       </c>
       <c r="AW50" t="n">
-        <v>3.073551382271073</v>
+        <v>3.401804981870318</v>
       </c>
       <c r="AX50" t="n">
-        <v>-118.1963788943083</v>
+        <v>-131.2980621548989</v>
       </c>
       <c r="AY50" t="n">
         <v>100.7794436755945</v>
@@ -8531,53 +8523,53 @@
         <v>0</v>
       </c>
       <c r="Y51" t="n">
-        <v>5.700608</v>
+        <v>5</v>
       </c>
       <c r="Z51" t="n">
-        <v>1.731584</v>
+        <v>6</v>
       </c>
       <c r="AA51" t="n">
         <v>0</v>
       </c>
       <c r="AB51" t="n">
-        <v>5.700608</v>
+        <v>5</v>
       </c>
       <c r="AC51" t="n">
-        <v>1.731584</v>
+        <v>6</v>
       </c>
       <c r="AD51" t="n">
-        <v>10.2931968</v>
+        <v>15.75</v>
       </c>
       <c r="AE51" t="inlineStr"/>
       <c r="AF51" t="n">
-        <v>7.432192</v>
+        <v>11</v>
       </c>
       <c r="AG51" t="n">
-        <v>5.700608</v>
+        <v>5</v>
       </c>
       <c r="AH51" t="n">
-        <v>1.731584</v>
+        <v>6</v>
       </c>
       <c r="AI51" t="n">
-        <v>1.622868011104113</v>
+        <v>1.423416635655408</v>
       </c>
       <c r="AJ51" t="n">
-        <v>0.3243794465158037</v>
+        <v>1.123988475953576</v>
       </c>
       <c r="AK51" t="n">
-        <v>-106.9799882289067</v>
+        <v>-93.83208594403841</v>
       </c>
       <c r="AL51" t="n">
-        <v>-15.0046078470057</v>
+        <v>-51.99148600707306</v>
       </c>
       <c r="AM51" t="n">
         <v>0</v>
       </c>
       <c r="AN51" t="n">
-        <v>-20.35580037590945</v>
+        <v>-70.53355702688101</v>
       </c>
       <c r="AO51" t="n">
-        <v>10.2931968</v>
+        <v>15.75</v>
       </c>
       <c r="AP51" t="n">
         <v>25.25707130434771</v>
@@ -8586,25 +8578,25 @@
         <v>108.3758623250562</v>
       </c>
       <c r="AR51" t="n">
-        <v>1.431973277698813</v>
+        <v>2.175124702279789</v>
       </c>
       <c r="AS51" t="n">
-        <v>-89.91860271666265</v>
+        <v>-137.6118502189932</v>
       </c>
       <c r="AT51" t="n">
         <v>0</v>
       </c>
       <c r="AU51" t="n">
-        <v>-123.1641978146749</v>
+        <v>-188.5193063212023</v>
       </c>
       <c r="AV51" t="n">
-        <v>7.432192</v>
+        <v>11</v>
       </c>
       <c r="AW51" t="n">
-        <v>1.551082919378423</v>
+        <v>2.277810461196361</v>
       </c>
       <c r="AX51" t="n">
-        <v>-141.0370580091802</v>
+        <v>-208.7964910505179</v>
       </c>
       <c r="AY51" t="n">
         <v>25.25707130434771</v>
@@ -8690,53 +8682,53 @@
         <v>0</v>
       </c>
       <c r="Y52" t="n">
-        <v>83.798</v>
+        <v>82.5</v>
       </c>
       <c r="Z52" t="n">
-        <v>25.454</v>
+        <v>28.5</v>
       </c>
       <c r="AA52" t="n">
         <v>0</v>
       </c>
       <c r="AB52" t="n">
-        <v>83.798</v>
+        <v>82.5</v>
       </c>
       <c r="AC52" t="n">
-        <v>25.454</v>
+        <v>28.5</v>
       </c>
       <c r="AD52" t="n">
-        <v>151.3083</v>
+        <v>154.125</v>
       </c>
       <c r="AE52" t="inlineStr"/>
       <c r="AF52" t="n">
-        <v>109.252</v>
+        <v>111</v>
       </c>
       <c r="AG52" t="n">
-        <v>83.798</v>
+        <v>82.5</v>
       </c>
       <c r="AH52" t="n">
-        <v>25.454</v>
+        <v>28.5</v>
       </c>
       <c r="AI52" t="n">
-        <v>13.64200777775674</v>
+        <v>13.43069812722179</v>
       </c>
       <c r="AJ52" t="n">
-        <v>3.497309493463419</v>
+        <v>3.915821504035012</v>
       </c>
       <c r="AK52" t="n">
-        <v>-383.7510309019897</v>
+        <v>-377.8068694887008</v>
       </c>
       <c r="AL52" t="n">
-        <v>-84.38793574618397</v>
+        <v>-94.48637419526382</v>
       </c>
       <c r="AM52" t="n">
         <v>0</v>
       </c>
       <c r="AN52" t="n">
-        <v>-118.8869865732333</v>
+        <v>-133.1138177629115</v>
       </c>
       <c r="AO52" t="n">
-        <v>151.3083</v>
+        <v>154.125</v>
       </c>
       <c r="AP52" t="n">
         <v>100.7794436755942</v>
@@ -8745,19 +8737,19 @@
         <v>203.0346196264643</v>
       </c>
       <c r="AR52" t="n">
-        <v>14.31684908835819</v>
+        <v>14.57083995279087</v>
       </c>
       <c r="AS52" t="n">
-        <v>-435.7510447443698</v>
+        <v>-435.8698919402826</v>
       </c>
       <c r="AT52" t="n">
         <v>0</v>
       </c>
       <c r="AU52" t="n">
-        <v>-1003.657070657223</v>
+        <v>-1049.638453971203</v>
       </c>
       <c r="AV52" t="n">
-        <v>109.252</v>
+        <v>111</v>
       </c>
       <c r="AW52" t="n">
         <v>0</v>
@@ -8849,53 +8841,53 @@
         <v>-0.1</v>
       </c>
       <c r="Y53" t="n">
-        <v>56.256</v>
+        <v>43</v>
       </c>
       <c r="Z53" t="n">
-        <v>17.088</v>
+        <v>15.4</v>
       </c>
       <c r="AA53" t="n">
         <v>0</v>
       </c>
       <c r="AB53" t="n">
-        <v>56.256</v>
+        <v>43</v>
       </c>
       <c r="AC53" t="n">
-        <v>17.088</v>
+        <v>15.4</v>
       </c>
       <c r="AD53" t="n">
-        <v>101.5776</v>
+        <v>81.15000000000001</v>
       </c>
       <c r="AE53" t="inlineStr"/>
       <c r="AF53" t="n">
-        <v>73.34399999999999</v>
+        <v>58.4</v>
       </c>
       <c r="AG53" t="n">
-        <v>56.256</v>
+        <v>43</v>
       </c>
       <c r="AH53" t="n">
-        <v>17.088</v>
+        <v>15.4</v>
       </c>
       <c r="AI53" t="n">
-        <v>11.58173819419451</v>
+        <v>8.852651136774117</v>
       </c>
       <c r="AJ53" t="n">
-        <v>2.750749682098133</v>
+        <v>2.479023004699865</v>
       </c>
       <c r="AK53" t="n">
-        <v>-532.1635172370194</v>
+        <v>-406.7660559085578</v>
       </c>
       <c r="AL53" t="n">
-        <v>-102.0418915477686</v>
+        <v>-91.96191068794693</v>
       </c>
       <c r="AM53" t="n">
         <v>0</v>
       </c>
       <c r="AN53" t="n">
-        <v>-139.2147848491597</v>
+        <v>-125.4627625630302</v>
       </c>
       <c r="AO53" t="n">
-        <v>101.5776</v>
+        <v>81.15000000000001</v>
       </c>
       <c r="AP53" t="n">
         <v>50.29503576592909</v>
@@ -8904,19 +8896,19 @@
         <v>130.502592292854</v>
       </c>
       <c r="AR53" t="n">
-        <v>12.10610912207168</v>
+        <v>9.430049403223459</v>
       </c>
       <c r="AS53" t="n">
-        <v>-436.4889738329061</v>
+        <v>-435.3166236148647</v>
       </c>
       <c r="AT53" t="n">
         <v>0</v>
       </c>
       <c r="AU53" t="n">
-        <v>-1241.466557379489</v>
+        <v>-801.8246727843328</v>
       </c>
       <c r="AV53" t="n">
-        <v>73.34399999999999</v>
+        <v>58.4</v>
       </c>
       <c r="AW53" t="n">
         <v>0</v>
@@ -9008,53 +9000,53 @@
         <v>0</v>
       </c>
       <c r="Y54" t="n">
-        <v>93.467</v>
+        <v>92.5</v>
       </c>
       <c r="Z54" t="n">
-        <v>28.391</v>
+        <v>31</v>
       </c>
       <c r="AA54" t="n">
         <v>0</v>
       </c>
       <c r="AB54" t="n">
-        <v>93.467</v>
+        <v>92.5</v>
       </c>
       <c r="AC54" t="n">
-        <v>28.391</v>
+        <v>31</v>
       </c>
       <c r="AD54" t="n">
-        <v>168.76695</v>
+        <v>171.375</v>
       </c>
       <c r="AE54" t="inlineStr"/>
       <c r="AF54" t="n">
-        <v>121.858</v>
+        <v>123.5</v>
       </c>
       <c r="AG54" t="n">
-        <v>93.467</v>
+        <v>92.5</v>
       </c>
       <c r="AH54" t="n">
-        <v>28.391</v>
+        <v>31</v>
       </c>
       <c r="AI54" t="n">
-        <v>12.99370797961613</v>
+        <v>12.85927640894103</v>
       </c>
       <c r="AJ54" t="n">
-        <v>3.591005754352353</v>
+        <v>3.921002373460707</v>
       </c>
       <c r="AK54" t="n">
-        <v>-296.427793029741</v>
+        <v>-293.3609814720814</v>
       </c>
       <c r="AL54" t="n">
-        <v>-76.54558048759428</v>
+        <v>-83.57976101988039</v>
       </c>
       <c r="AM54" t="n">
         <v>0</v>
       </c>
       <c r="AN54" t="n">
-        <v>-126.7054827027535</v>
+        <v>-138.3491234470558</v>
       </c>
       <c r="AO54" t="n">
-        <v>168.76695</v>
+        <v>171.375</v>
       </c>
       <c r="AP54" t="n">
         <v>141.9525202393384</v>
@@ -9063,25 +9055,25 @@
         <v>197.9242103400195</v>
       </c>
       <c r="AR54" t="n">
-        <v>14.60972780563644</v>
+        <v>14.89928788887254</v>
       </c>
       <c r="AS54" t="n">
-        <v>-435.4860966780937</v>
+        <v>-435.6398278823258</v>
       </c>
       <c r="AT54" t="n">
         <v>0</v>
       </c>
       <c r="AU54" t="n">
-        <v>-1070.812514377834</v>
+        <v>-1139.79246720892</v>
       </c>
       <c r="AV54" t="n">
-        <v>121.858</v>
+        <v>123.5</v>
       </c>
       <c r="AW54" t="n">
-        <v>11.45054088172761</v>
+        <v>11.57518814262323</v>
       </c>
       <c r="AX54" t="n">
-        <v>-400.9178273199685</v>
+        <v>-406.4072292807447</v>
       </c>
       <c r="AY54" t="n">
         <v>141.9525202393384</v>
@@ -9167,53 +9159,53 @@
         <v>0.15</v>
       </c>
       <c r="Y55" t="n">
-        <v>20.25216</v>
+        <v>16</v>
       </c>
       <c r="Z55" t="n">
-        <v>6.15168</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA55" t="n">
         <v>0</v>
       </c>
       <c r="AB55" t="n">
-        <v>20.25216</v>
+        <v>16</v>
       </c>
       <c r="AC55" t="n">
-        <v>6.15168</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD55" t="n">
-        <v>36.567936</v>
+        <v>33.9</v>
       </c>
       <c r="AE55" t="inlineStr"/>
       <c r="AF55" t="n">
-        <v>26.40384</v>
+        <v>24.2</v>
       </c>
       <c r="AG55" t="n">
-        <v>20.25216</v>
+        <v>16</v>
       </c>
       <c r="AH55" t="n">
-        <v>6.15168</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AI55" t="n">
-        <v>3.452645569642119</v>
+        <v>2.727725295191918</v>
       </c>
       <c r="AJ55" t="n">
-        <v>0.9700604361946568</v>
+        <v>1.293059741740043</v>
       </c>
       <c r="AK55" t="n">
-        <v>-169.4139086561642</v>
+        <v>-133.8436264822433</v>
       </c>
       <c r="AL55" t="n">
-        <v>-44.35647442991992</v>
+        <v>-59.12582078486486</v>
       </c>
       <c r="AM55" t="n">
         <v>0</v>
       </c>
       <c r="AN55" t="n">
-        <v>-58.89618637213092</v>
+        <v>-78.50680974854831</v>
       </c>
       <c r="AO55" t="n">
-        <v>36.567936</v>
+        <v>33.9</v>
       </c>
       <c r="AP55" t="n">
         <v>56.86374264883423</v>
@@ -9222,25 +9214,25 @@
         <v>79.64065551027335</v>
       </c>
       <c r="AR55" t="n">
-        <v>4.169784549533891</v>
+        <v>3.878170107715471</v>
       </c>
       <c r="AS55" t="n">
-        <v>-267.5788178811409</v>
+        <v>-248.0266842892711</v>
       </c>
       <c r="AT55" t="n">
         <v>0</v>
       </c>
       <c r="AU55" t="n">
-        <v>-358.5790720120594</v>
+        <v>-332.3577127674224</v>
       </c>
       <c r="AV55" t="n">
-        <v>26.40384</v>
+        <v>24.2</v>
       </c>
       <c r="AW55" t="n">
-        <v>3.28659462887416</v>
+        <v>3.021061589990689</v>
       </c>
       <c r="AX55" t="n">
-        <v>-224.189716889355</v>
+        <v>-205.4521650454859</v>
       </c>
       <c r="AY55" t="n">
         <v>56.86374264883423</v>
@@ -9322,44 +9314,44 @@
         <v>0</v>
       </c>
       <c r="Y56" t="n">
-        <v>-1.518912</v>
+        <v>0</v>
       </c>
       <c r="Z56" t="n">
-        <v>-0.461376</v>
+        <v>0</v>
       </c>
       <c r="AA56" t="n">
         <v>0</v>
       </c>
       <c r="AB56" t="n">
-        <v>-1.518912</v>
+        <v>0</v>
       </c>
       <c r="AC56" t="n">
-        <v>-0.461376</v>
+        <v>0</v>
       </c>
       <c r="AD56" t="n">
-        <v>-2.7425952</v>
+        <v>0</v>
       </c>
       <c r="AE56" t="inlineStr"/>
       <c r="AF56" t="n">
-        <v>-1.980288</v>
+        <v>0</v>
       </c>
       <c r="AG56" t="n">
-        <v>-1.518912</v>
+        <v>0</v>
       </c>
       <c r="AH56" t="n">
-        <v>-0.461376</v>
+        <v>0</v>
       </c>
       <c r="AI56" t="n">
-        <v>84.50077616571023</v>
+        <v>0</v>
       </c>
       <c r="AJ56" t="n">
-        <v>25.66747125852632</v>
+        <v>0</v>
       </c>
       <c r="AK56" t="n">
-        <v>-5523.316363636361</v>
+        <v>0</v>
       </c>
       <c r="AL56" t="n">
-        <v>-1677.730909090909</v>
+        <v>0</v>
       </c>
       <c r="AM56" t="n">
         <v>0</v>
@@ -9368,7 +9360,7 @@
         <v>0</v>
       </c>
       <c r="AO56" t="n">
-        <v>-2.7425952</v>
+        <v>0</v>
       </c>
       <c r="AP56" t="n">
         <v>0.7804308298384421</v>
@@ -9389,7 +9381,7 @@
         <v>0</v>
       </c>
       <c r="AV56" t="n">
-        <v>-1.980288</v>
+        <v>0</v>
       </c>
       <c r="AW56" t="n">
         <v>0</v>
@@ -9481,53 +9473,53 @@
         <v>0</v>
       </c>
       <c r="Y57" t="n">
-        <v>29.25312</v>
+        <v>22</v>
       </c>
       <c r="Z57" t="n">
-        <v>8.885759999999999</v>
+        <v>10</v>
       </c>
       <c r="AA57" t="n">
         <v>0</v>
       </c>
       <c r="AB57" t="n">
-        <v>29.25312</v>
+        <v>22</v>
       </c>
       <c r="AC57" t="n">
-        <v>8.885759999999999</v>
+        <v>10</v>
       </c>
       <c r="AD57" t="n">
-        <v>52.820352</v>
+        <v>44.7</v>
       </c>
       <c r="AE57" t="inlineStr"/>
       <c r="AF57" t="n">
-        <v>38.13888</v>
+        <v>32</v>
       </c>
       <c r="AG57" t="n">
-        <v>29.25312</v>
+        <v>22</v>
       </c>
       <c r="AH57" t="n">
-        <v>8.885759999999999</v>
+        <v>10</v>
       </c>
       <c r="AI57" t="n">
-        <v>4.987154711705281</v>
+        <v>3.75062228088888</v>
       </c>
       <c r="AJ57" t="n">
-        <v>1.26712241778531</v>
+        <v>1.426014677174837</v>
       </c>
       <c r="AK57" t="n">
-        <v>-244.708979170015</v>
+        <v>-184.0349864130845</v>
       </c>
       <c r="AL57" t="n">
-        <v>-53.11463560949606</v>
+        <v>-59.77500586274677</v>
       </c>
       <c r="AM57" t="n">
         <v>0</v>
       </c>
       <c r="AN57" t="n">
-        <v>-70.65930741979948</v>
+        <v>-79.51971178582303</v>
       </c>
       <c r="AO57" t="n">
-        <v>52.820352</v>
+        <v>44.7</v>
       </c>
       <c r="AP57" t="n">
         <v>56.86374264883423</v>
@@ -9536,25 +9528,25 @@
         <v>119.5708300148144</v>
       </c>
       <c r="AR57" t="n">
-        <v>5.383638112003096</v>
+        <v>4.599463820875014</v>
       </c>
       <c r="AS57" t="n">
-        <v>-320.3314976995526</v>
+        <v>-270.9810241529835</v>
       </c>
       <c r="AT57" t="n">
         <v>0</v>
       </c>
       <c r="AU57" t="n">
-        <v>-430.6078282365222</v>
+        <v>-364.2032674314625</v>
       </c>
       <c r="AV57" t="n">
-        <v>38.13888</v>
+        <v>32</v>
       </c>
       <c r="AW57" t="n">
-        <v>4.672226990056234</v>
+        <v>3.953370885669568</v>
       </c>
       <c r="AX57" t="n">
-        <v>-324.0458083646158</v>
+        <v>-271.7912330256934</v>
       </c>
       <c r="AY57" t="n">
         <v>56.86374264883423</v>
@@ -9640,44 +9632,44 @@
         <v>0</v>
       </c>
       <c r="Y58" t="n">
-        <v>96.69</v>
+        <v>90</v>
       </c>
       <c r="Z58" t="n">
-        <v>29.37</v>
+        <v>30</v>
       </c>
       <c r="AA58" t="n">
         <v>0</v>
       </c>
       <c r="AB58" t="n">
-        <v>96.69</v>
+        <v>90</v>
       </c>
       <c r="AC58" t="n">
-        <v>29.37</v>
+        <v>30</v>
       </c>
       <c r="AD58" t="n">
-        <v>174.5865</v>
+        <v>166.5</v>
       </c>
       <c r="AE58" t="inlineStr"/>
       <c r="AF58" t="n">
-        <v>126.06</v>
+        <v>120</v>
       </c>
       <c r="AG58" t="n">
-        <v>96.69</v>
+        <v>90</v>
       </c>
       <c r="AH58" t="n">
-        <v>29.37</v>
+        <v>30</v>
       </c>
       <c r="AI58" t="n">
-        <v>13.41808665706805</v>
+        <v>12.48968661843131</v>
       </c>
       <c r="AJ58" t="n">
-        <v>4.075801066481417</v>
+        <v>4.163228872810435</v>
       </c>
       <c r="AK58" t="n">
-        <v>-305.3877930430573</v>
+        <v>-284.2579519482383</v>
       </c>
       <c r="AL58" t="n">
-        <v>-92.76284498577506</v>
+        <v>-94.75265064941276</v>
       </c>
       <c r="AM58" t="n">
         <v>0</v>
@@ -9686,7 +9678,7 @@
         <v>0</v>
       </c>
       <c r="AO58" t="n">
-        <v>174.5865</v>
+        <v>166.5</v>
       </c>
       <c r="AP58" t="n">
         <v>142.4985880932212</v>
@@ -9707,13 +9699,13 @@
         <v>0</v>
       </c>
       <c r="AV58" t="n">
-        <v>126.06</v>
+        <v>120</v>
       </c>
       <c r="AW58" t="n">
-        <v>11.75308679189007</v>
+        <v>11.29405142124288</v>
       </c>
       <c r="AX58" t="n">
-        <v>-413.2750531450196</v>
+        <v>-393.0974340589133</v>
       </c>
       <c r="AY58" t="n">
         <v>142.4985880932212</v>
@@ -9799,53 +9791,53 @@
         <v>0</v>
       </c>
       <c r="Y59" t="n">
-        <v>51.00544</v>
+        <v>39</v>
       </c>
       <c r="Z59" t="n">
-        <v>15.49312</v>
+        <v>14</v>
       </c>
       <c r="AA59" t="n">
         <v>0</v>
       </c>
       <c r="AB59" t="n">
-        <v>51.00544</v>
+        <v>39</v>
       </c>
       <c r="AC59" t="n">
-        <v>15.49312</v>
+        <v>14</v>
       </c>
       <c r="AD59" t="n">
-        <v>92.097024</v>
+        <v>73.65000000000001</v>
       </c>
       <c r="AE59" t="inlineStr"/>
       <c r="AF59" t="n">
-        <v>66.49856</v>
+        <v>53</v>
       </c>
       <c r="AG59" t="n">
-        <v>51.00544</v>
+        <v>39</v>
       </c>
       <c r="AH59" t="n">
-        <v>15.49312</v>
+        <v>14</v>
       </c>
       <c r="AI59" t="n">
-        <v>8.776780823016294</v>
+        <v>6.710940089873468</v>
       </c>
       <c r="AJ59" t="n">
-        <v>2.335541373242008</v>
+        <v>2.110458011387512</v>
       </c>
       <c r="AK59" t="n">
-        <v>-324.8530329078908</v>
+        <v>-248.3905301749724</v>
       </c>
       <c r="AL59" t="n">
-        <v>-77.11269684841213</v>
+        <v>-69.68110721906046</v>
       </c>
       <c r="AM59" t="n">
         <v>0</v>
       </c>
       <c r="AN59" t="n">
-        <v>-105.5723197674054</v>
+        <v>-95.39798805816231</v>
       </c>
       <c r="AO59" t="n">
-        <v>92.097024</v>
+        <v>73.65000000000001</v>
       </c>
       <c r="AP59" t="n">
         <v>74.70889227763416</v>
@@ -9854,25 +9846,25 @@
         <v>128.6929834322424</v>
       </c>
       <c r="AR59" t="n">
-        <v>10.10454055895514</v>
+        <v>7.77333692541759</v>
       </c>
       <c r="AS59" t="n">
-        <v>-435.2749262733244</v>
+        <v>-373.8485346992495</v>
       </c>
       <c r="AT59" t="n">
         <v>0</v>
       </c>
       <c r="AU59" t="n">
-        <v>-789.4632431441278</v>
+        <v>-519.9149396372617</v>
       </c>
       <c r="AV59" t="n">
-        <v>66.49856</v>
+        <v>53</v>
       </c>
       <c r="AW59" t="n">
-        <v>7.958412263212965</v>
+        <v>6.476314780414641</v>
       </c>
       <c r="AX59" t="n">
-        <v>-433.0153399885537</v>
+        <v>-344.7240833638019</v>
       </c>
       <c r="AY59" t="n">
         <v>74.70889227763416</v>
@@ -10117,53 +10109,53 @@
         <v>0</v>
       </c>
       <c r="Y61" t="n">
-        <v>29.6516</v>
+        <v>26.3</v>
       </c>
       <c r="Z61" t="n">
-        <v>9.0068</v>
+        <v>9</v>
       </c>
       <c r="AA61" t="n">
         <v>0</v>
       </c>
       <c r="AB61" t="n">
-        <v>29.6516</v>
+        <v>26.3</v>
       </c>
       <c r="AC61" t="n">
-        <v>9.0068</v>
+        <v>9</v>
       </c>
       <c r="AD61" t="n">
-        <v>53.53986</v>
+        <v>49.005</v>
       </c>
       <c r="AE61" t="inlineStr"/>
       <c r="AF61" t="n">
-        <v>38.6584</v>
+        <v>35.3</v>
       </c>
       <c r="AG61" t="n">
-        <v>29.6516</v>
+        <v>26.3</v>
       </c>
       <c r="AH61" t="n">
-        <v>9.0068</v>
+        <v>9</v>
       </c>
       <c r="AI61" t="n">
-        <v>8.44131592946837</v>
+        <v>7.487171314364747</v>
       </c>
       <c r="AJ61" t="n">
-        <v>1.687256567536447</v>
+        <v>1.685982713930366</v>
       </c>
       <c r="AK61" t="n">
-        <v>-556.4542973255222</v>
+        <v>-493.5567733161527</v>
       </c>
       <c r="AL61" t="n">
-        <v>-78.0461526947509</v>
+        <v>-77.9872290106096</v>
       </c>
       <c r="AM61" t="n">
         <v>0</v>
       </c>
       <c r="AN61" t="n">
-        <v>-105.8802735716186</v>
+        <v>-105.8003355403215</v>
       </c>
       <c r="AO61" t="n">
-        <v>53.53986</v>
+        <v>49.005</v>
       </c>
       <c r="AP61" t="n">
         <v>25.25707130434771</v>
@@ -10172,19 +10164,19 @@
         <v>108.3758623250562</v>
       </c>
       <c r="AR61" t="n">
-        <v>7.115381177581691</v>
+        <v>6.438704573575956</v>
       </c>
       <c r="AS61" t="n">
-        <v>-435.003965962811</v>
+        <v>-428.7678500171927</v>
       </c>
       <c r="AT61" t="n">
         <v>0</v>
       </c>
       <c r="AU61" t="n">
-        <v>-678.9923696512653</v>
+        <v>-587.9439704269114</v>
       </c>
       <c r="AV61" t="n">
-        <v>38.6584</v>
+        <v>35.3</v>
       </c>
       <c r="AW61" t="n">
         <v>0</v>
@@ -10276,44 +10268,44 @@
         <v>0</v>
       </c>
       <c r="Y62" t="n">
-        <v>56.256</v>
+        <v>49</v>
       </c>
       <c r="Z62" t="n">
-        <v>17.088</v>
+        <v>15.5</v>
       </c>
       <c r="AA62" t="n">
         <v>0</v>
       </c>
       <c r="AB62" t="n">
-        <v>56.256</v>
+        <v>49</v>
       </c>
       <c r="AC62" t="n">
-        <v>17.088</v>
+        <v>15.5</v>
       </c>
       <c r="AD62" t="n">
-        <v>101.5776</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="AE62" t="inlineStr"/>
       <c r="AF62" t="n">
-        <v>73.34399999999999</v>
+        <v>64.5</v>
       </c>
       <c r="AG62" t="n">
-        <v>56.256</v>
+        <v>49</v>
       </c>
       <c r="AH62" t="n">
-        <v>17.088</v>
+        <v>15.5</v>
       </c>
       <c r="AI62" t="n">
-        <v>9.692722532130357</v>
+        <v>8.442537757294991</v>
       </c>
       <c r="AJ62" t="n">
-        <v>2.944205820339934</v>
+        <v>2.670598678328009</v>
       </c>
       <c r="AK62" t="n">
-        <v>-294.0598841158645</v>
+        <v>-256.1315116907949</v>
       </c>
       <c r="AL62" t="n">
-        <v>-89.32194432188378</v>
+        <v>-81.02119247361881</v>
       </c>
       <c r="AM62" t="n">
         <v>0</v>
@@ -10322,7 +10314,7 @@
         <v>0</v>
       </c>
       <c r="AO62" t="n">
-        <v>101.5776</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="AP62" t="n">
         <v>89.00659508617929</v>
@@ -10334,7 +10326,7 @@
         <v>0</v>
       </c>
       <c r="AS62" t="n">
-        <v>0</v>
+        <v>-458.4945052632266</v>
       </c>
       <c r="AT62" t="n">
         <v>0</v>
@@ -10343,13 +10335,13 @@
         <v>0</v>
       </c>
       <c r="AV62" t="n">
-        <v>73.34399999999999</v>
+        <v>64.5</v>
       </c>
       <c r="AW62" t="n">
-        <v>8.784713542979587</v>
+        <v>7.837706318297656</v>
       </c>
       <c r="AX62" t="n">
-        <v>-393.6760083324812</v>
+        <v>-345.860087919708</v>
       </c>
       <c r="AY62" t="n">
         <v>89.00659508617929</v>
@@ -10745,53 +10737,53 @@
         <v>0</v>
       </c>
       <c r="Y65" t="n">
-        <v>32.25344</v>
+        <v>24</v>
       </c>
       <c r="Z65" t="n">
-        <v>9.79712</v>
+        <v>10</v>
       </c>
       <c r="AA65" t="n">
         <v>0</v>
       </c>
       <c r="AB65" t="n">
-        <v>32.25344</v>
+        <v>24</v>
       </c>
       <c r="AC65" t="n">
-        <v>9.79712</v>
+        <v>10</v>
       </c>
       <c r="AD65" t="n">
-        <v>58.237824</v>
+        <v>47.40000000000001</v>
       </c>
       <c r="AE65" t="inlineStr"/>
       <c r="AF65" t="n">
-        <v>42.05056</v>
+        <v>34</v>
       </c>
       <c r="AG65" t="n">
-        <v>32.25344</v>
+        <v>24</v>
       </c>
       <c r="AH65" t="n">
-        <v>9.79712</v>
+        <v>10</v>
       </c>
       <c r="AI65" t="n">
-        <v>5.498657759059681</v>
+        <v>4.091587942787874</v>
       </c>
       <c r="AJ65" t="n">
-        <v>1.397083691404314</v>
+        <v>1.426014677174837</v>
       </c>
       <c r="AK65" t="n">
-        <v>-269.8073360079652</v>
+        <v>-200.7654397233649</v>
       </c>
       <c r="AL65" t="n">
-        <v>-58.56229054380336</v>
+        <v>-59.77500586274677</v>
       </c>
       <c r="AM65" t="n">
         <v>0</v>
       </c>
       <c r="AN65" t="n">
-        <v>-77.90641587311225</v>
+        <v>-79.51971178582303</v>
       </c>
       <c r="AO65" t="n">
-        <v>58.237824</v>
+        <v>47.40000000000001</v>
       </c>
       <c r="AP65" t="n">
         <v>56.86374264883423</v>
@@ -10800,25 +10792,25 @@
         <v>119.5708300148144</v>
       </c>
       <c r="AR65" t="n">
-        <v>5.897410089081838</v>
+        <v>4.862048806398834</v>
       </c>
       <c r="AS65" t="n">
-        <v>-353.2783023594039</v>
+        <v>-287.3854802787007</v>
       </c>
       <c r="AT65" t="n">
         <v>0</v>
       </c>
       <c r="AU65" t="n">
-        <v>-474.9547598143018</v>
+        <v>-386.2737654482494</v>
       </c>
       <c r="AV65" t="n">
-        <v>42.05056</v>
+        <v>34</v>
       </c>
       <c r="AW65" t="n">
-        <v>5.123265122038664</v>
+        <v>4.189029497376118</v>
       </c>
       <c r="AX65" t="n">
-        <v>-357.3628281179008</v>
+        <v>-288.8111102409663</v>
       </c>
       <c r="AY65" t="n">
         <v>56.86374264883423</v>
@@ -10902,44 +10894,44 @@
       </c>
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="n">
-        <v>96.69</v>
+        <v>97.5</v>
       </c>
       <c r="Z66" t="n">
-        <v>29.37</v>
+        <v>26</v>
       </c>
       <c r="AA66" t="n">
         <v>0</v>
       </c>
       <c r="AB66" t="n">
-        <v>96.69</v>
+        <v>97.5</v>
       </c>
       <c r="AC66" t="n">
-        <v>29.37</v>
+        <v>26</v>
       </c>
       <c r="AD66" t="n">
-        <v>174.5865</v>
+        <v>170.625</v>
       </c>
       <c r="AE66" t="inlineStr"/>
       <c r="AF66" t="n">
-        <v>126.06</v>
+        <v>123.5</v>
       </c>
       <c r="AG66" t="n">
-        <v>96.69</v>
+        <v>97.5</v>
       </c>
       <c r="AH66" t="n">
-        <v>29.37</v>
+        <v>26</v>
       </c>
       <c r="AI66" t="n">
-        <v>14.04083869617916</v>
+        <v>14.15846284907919</v>
       </c>
       <c r="AJ66" t="n">
-        <v>4.264964655153392</v>
+        <v>3.775590093087781</v>
       </c>
       <c r="AK66" t="n">
-        <v>-314.398087937756</v>
+        <v>-317.0318913427573</v>
       </c>
       <c r="AL66" t="n">
-        <v>-95.49976049986442</v>
+        <v>-84.54183769140197</v>
       </c>
       <c r="AM66" t="n">
         <v>0</v>
@@ -10948,7 +10940,7 @@
         <v>0</v>
       </c>
       <c r="AO66" t="n">
-        <v>174.5865</v>
+        <v>170.625</v>
       </c>
       <c r="AP66" t="n">
         <v>138.1355039709664</v>
@@ -10969,13 +10961,13 @@
         <v>0</v>
       </c>
       <c r="AV66" t="n">
-        <v>126.06</v>
+        <v>123.5</v>
       </c>
       <c r="AW66" t="n">
-        <v>12.19196887347319</v>
+        <v>11.99667468963919</v>
       </c>
       <c r="AX66" t="n">
-        <v>-426.02791228085</v>
+        <v>-417.2184480568624</v>
       </c>
       <c r="AY66" t="n">
         <v>138.1355039709664</v>
@@ -11061,53 +11053,53 @@
         <v>0</v>
       </c>
       <c r="Y67" t="n">
-        <v>45.75487999999999</v>
+        <v>35</v>
       </c>
       <c r="Z67" t="n">
-        <v>13.89824</v>
+        <v>13</v>
       </c>
       <c r="AA67" t="n">
         <v>0</v>
       </c>
       <c r="AB67" t="n">
-        <v>45.75487999999999</v>
+        <v>35</v>
       </c>
       <c r="AC67" t="n">
-        <v>13.89824</v>
+        <v>13</v>
       </c>
       <c r="AD67" t="n">
-        <v>82.61644799999999</v>
+        <v>66.75</v>
       </c>
       <c r="AE67" t="inlineStr"/>
       <c r="AF67" t="n">
-        <v>59.65311999999999</v>
+        <v>48</v>
       </c>
       <c r="AG67" t="n">
-        <v>45.75487999999999</v>
+        <v>35</v>
       </c>
       <c r="AH67" t="n">
-        <v>13.89824</v>
+        <v>13</v>
       </c>
       <c r="AI67" t="n">
-        <v>7.873288679470501</v>
+        <v>6.022638542194136</v>
       </c>
       <c r="AJ67" t="n">
-        <v>2.095117996584742</v>
+        <v>1.959711010574118</v>
       </c>
       <c r="AK67" t="n">
-        <v>-291.4122795203139</v>
+        <v>-222.9145783621547</v>
       </c>
       <c r="AL67" t="n">
-        <v>-69.17462511401678</v>
+        <v>-64.70388527484187</v>
       </c>
       <c r="AM67" t="n">
         <v>0</v>
       </c>
       <c r="AN67" t="n">
-        <v>-94.70458096781957</v>
+        <v>-88.58384605400786</v>
       </c>
       <c r="AO67" t="n">
-        <v>82.61644799999999</v>
+        <v>66.75</v>
       </c>
       <c r="AP67" t="n">
         <v>74.70889227763416</v>
@@ -11116,25 +11108,25 @@
         <v>128.6929834322424</v>
       </c>
       <c r="AR67" t="n">
-        <v>8.609415248565929</v>
+        <v>7.112081780753904</v>
       </c>
       <c r="AS67" t="n">
-        <v>-419.6519879883432</v>
+        <v>-338.6488281288591</v>
       </c>
       <c r="AT67" t="n">
         <v>0</v>
       </c>
       <c r="AU67" t="n">
-        <v>-583.8094746274463</v>
+        <v>-470.8456104354523</v>
       </c>
       <c r="AV67" t="n">
-        <v>59.65311999999999</v>
+        <v>48</v>
       </c>
       <c r="AW67" t="n">
-        <v>7.216103773302687</v>
+        <v>5.908810941240626</v>
       </c>
       <c r="AX67" t="n">
-        <v>-388.2127668872869</v>
+        <v>-312.075633036575</v>
       </c>
       <c r="AY67" t="n">
         <v>74.70889227763416</v>
